--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_731.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_731.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g29125-d530855-Reviews-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>134</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Super-8-By-Wyndham-Azusa.h856138.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_731.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_731.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="454">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1250 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r573866411-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>29125</t>
+  </si>
+  <si>
+    <t>530855</t>
+  </si>
+  <si>
+    <t>573866411</t>
+  </si>
+  <si>
+    <t>04/16/2018</t>
+  </si>
+  <si>
+    <t>The BEST Super 8 in the Valley</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here for 3 weeks for work. The staff does excellent job of keeping property clean. My room was clean , comfy and had way more HBO channels than I expected. Area is on a busy street but overall quiet. Shopping centers and movie theaters less than 2-3 blocks away. This property manager takes pride and it shows! Thanks for a great stay Super 8 Azusa.</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r554082265-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>554082265</t>
+  </si>
+  <si>
+    <t>01/15/2018</t>
+  </si>
+  <si>
+    <t>Location was ideal for us</t>
+  </si>
+  <si>
+    <t>This Super 8 is a little long in the tooth but the location served us very well.  The breakfast met our needs and the daily cleaning of our room was first rate.  All things considered, we received a fair value for a very fair price.</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r553455791-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>553455791</t>
+  </si>
+  <si>
+    <t>01/12/2018</t>
+  </si>
+  <si>
+    <t>Nice &amp; clean.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice &amp; clean. The hot tub is only heated if you ask. Give it a couple of hours to become useable. </t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r542707473-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>542707473</t>
+  </si>
+  <si>
+    <t>11/22/2017</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r539980744-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>539980744</t>
+  </si>
+  <si>
+    <t>11/10/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r535995165-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>535995165</t>
+  </si>
+  <si>
+    <t>10/25/2017</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r513235337-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>513235337</t>
+  </si>
+  <si>
+    <t>08/15/2017</t>
+  </si>
+  <si>
+    <t>No respect</t>
+  </si>
+  <si>
+    <t>The room was clean, but the parking it's useless and the ice machine broken, soda dispenser broken as well, people parked wherever they wanted and the parking stalls were not respected at all, to the point that I had to leave I couldn't because there was someone blocking me and people in the middle of the night fighting right in front of my door.... I won't stay there again.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r513003801-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>513003801</t>
+  </si>
+  <si>
+    <t>08/14/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r503237010-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>503237010</t>
+  </si>
+  <si>
+    <t>07/18/2017</t>
+  </si>
+  <si>
+    <t>Be Aware!!!!!!!</t>
+  </si>
+  <si>
+    <t>We are a simple pleasing family. But safety is #1 with us. The office staff the husband, wife, and other worker is rude and doesn't care about the guest!! Only $! My child received 3 degree burns from walking on the upstairs waking path because they used left over tar from the parking lot to make the look more attracting. This has happened several times says the staff and the hotel has lawsuits over It. All we ask for was extra pillows being that we had to problem our child up to prevent pain and swelling of the feet, we needed pillows to rest. The two days that we had to stay in the room so that our kid could heal enough to ease the pain. We notified the front desk and they only treated us horrible. No apologies or anything. The manager refused to call or come talk to us. Everything good about a stay goes out the window when your child's safety is at risk. This hote should be made to fix the walking path or have signs posted!!! My child has to live with the after effects of 3rd degree burns. 2 days stopped vacation because of the burns, Having to be in a wheelchair the rest of the trip, and now seeking medical attention at home. And just for the record. We did not receive reimbursement on our stay so that we could cover medical visit,...We are a simple pleasing family. But safety is #1 with us. The office staff the husband, wife, and other worker is rude and doesn't care about the guest!! Only $! My child received 3 degree burns from walking on the upstairs waking path because they used left over tar from the parking lot to make the look more attracting. This has happened several times says the staff and the hotel has lawsuits over It. All we ask for was extra pillows being that we had to problem our child up to prevent pain and swelling of the feet, we needed pillows to rest. The two days that we had to stay in the room so that our kid could heal enough to ease the pain. We notified the front desk and they only treated us horrible. No apologies or anything. The manager refused to call or come talk to us. Everything good about a stay goes out the window when your child's safety is at risk. This hote should be made to fix the walking path or have signs posted!!! My child has to live with the after effects of 3rd degree burns. 2 days stopped vacation because of the burns, Having to be in a wheelchair the rest of the trip, and now seeking medical attention at home. And just for the record. We did not receive reimbursement on our stay so that we could cover medical visit, medicines, or supplies. The staff at the front office did not care AT ALL!!!! I hope the hotel chain does some management change here for the future guest.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>We are a simple pleasing family. But safety is #1 with us. The office staff the husband, wife, and other worker is rude and doesn't care about the guest!! Only $! My child received 3 degree burns from walking on the upstairs waking path because they used left over tar from the parking lot to make the look more attracting. This has happened several times says the staff and the hotel has lawsuits over It. All we ask for was extra pillows being that we had to problem our child up to prevent pain and swelling of the feet, we needed pillows to rest. The two days that we had to stay in the room so that our kid could heal enough to ease the pain. We notified the front desk and they only treated us horrible. No apologies or anything. The manager refused to call or come talk to us. Everything good about a stay goes out the window when your child's safety is at risk. This hote should be made to fix the walking path or have signs posted!!! My child has to live with the after effects of 3rd degree burns. 2 days stopped vacation because of the burns, Having to be in a wheelchair the rest of the trip, and now seeking medical attention at home. And just for the record. We did not receive reimbursement on our stay so that we could cover medical visit,...We are a simple pleasing family. But safety is #1 with us. The office staff the husband, wife, and other worker is rude and doesn't care about the guest!! Only $! My child received 3 degree burns from walking on the upstairs waking path because they used left over tar from the parking lot to make the look more attracting. This has happened several times says the staff and the hotel has lawsuits over It. All we ask for was extra pillows being that we had to problem our child up to prevent pain and swelling of the feet, we needed pillows to rest. The two days that we had to stay in the room so that our kid could heal enough to ease the pain. We notified the front desk and they only treated us horrible. No apologies or anything. The manager refused to call or come talk to us. Everything good about a stay goes out the window when your child's safety is at risk. This hote should be made to fix the walking path or have signs posted!!! My child has to live with the after effects of 3rd degree burns. 2 days stopped vacation because of the burns, Having to be in a wheelchair the rest of the trip, and now seeking medical attention at home. And just for the record. We did not receive reimbursement on our stay so that we could cover medical visit, medicines, or supplies. The staff at the front office did not care AT ALL!!!! I hope the hotel chain does some management change here for the future guest.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r498007845-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>498007845</t>
+  </si>
+  <si>
+    <t>07/02/2017</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r497615168-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>497615168</t>
+  </si>
+  <si>
+    <t>07/01/2017</t>
+  </si>
+  <si>
+    <t>The hotel was clean. Had everything we needed. It needs a...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hotel was clean. Had everything we needed. It needs a little updating on the rooms. The bed was good, lots of pillows and king size bed. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r496880271-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>496880271</t>
+  </si>
+  <si>
+    <t>06/28/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r482749905-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>482749905</t>
+  </si>
+  <si>
+    <t>05/08/2017</t>
+  </si>
+  <si>
+    <t>Hotel in Azusa close to freeway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel is okay, it is aging.  Chairs and table might be better to be removed and or replaced if possible.  Room is clean though.  Breakfast is good, you can make waffles in the morning.  </t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r482482971-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>482482971</t>
+  </si>
+  <si>
+    <t>05/07/2017</t>
+  </si>
+  <si>
+    <t>Our night at Super 8 Azusa</t>
+  </si>
+  <si>
+    <t>My daughter booked a first floor room so we could attend my grand-daughter's graduation from Azusa Pacific University. Our room was quiet and clean. Adequate parking. Close to food. Great staff. Breakfast is available and is adequate. There are two schools of higher education located nearby: Azusa Pacific U. and Citrus College.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r480950192-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>480950192</t>
+  </si>
+  <si>
+    <t>05/02/2017</t>
+  </si>
+  <si>
+    <t>clean stay</t>
+  </si>
+  <si>
+    <t>excellent facilities the parking is small and in an alley however guess you get what you pay for</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r479527887-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>479527887</t>
+  </si>
+  <si>
+    <t>04/27/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r476840558-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>476840558</t>
+  </si>
+  <si>
+    <t>04/18/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r474851917-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>474851917</t>
+  </si>
+  <si>
+    <t>04/11/2017</t>
+  </si>
+  <si>
+    <t>A Comfortable Stay</t>
+  </si>
+  <si>
+    <t>I just stayed 3 nights at Super 8 in Azusa. I thought the room was very comfortable and large. It had a tub and shower in room. It also had a 50 inch flat screen TV along with a small refrigerator and microwave in room.The bed was comfortable. Breakfast was so so. It was noisy on Saturday night not sure why if a bunch of people stayed there and partied but I was able to fall asleep.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r469144631-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>469144631</t>
+  </si>
+  <si>
+    <t>03/21/2017</t>
+  </si>
+  <si>
+    <t>Quiet but not great</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This was a weeklong stay. It was quiet and breakfast was sufficient. The location was somewhat sketchy as were the accommodations. If you just need a place to sleep and free breakfast - it's doable. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r466774490-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>466774490</t>
+  </si>
+  <si>
+    <t>03/13/2017</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r464705101-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>464705101</t>
+  </si>
+  <si>
+    <t>03/05/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r458435627-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>458435627</t>
+  </si>
+  <si>
+    <t>02/10/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r456925196-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>456925196</t>
+  </si>
+  <si>
+    <t>02/03/2017</t>
+  </si>
+  <si>
+    <t>Could have been better</t>
+  </si>
+  <si>
+    <t>The neighborhood is not the safest, The Hotel had a few structural issues that could result in fall risks.  The bed was comfortable and the rooms clean.  the maid service missed our room one day which resulted in having to go retrieve towels  and coffee at 9:30 in the evening.  We had a difficult time getting some one to refill the coffee in the lobby at the continental breakfast.  As a matter of fact they didn't even acknowledged us when we asked for it to be refilled.  This is the 3rd and last time I will stay at this Super 8.  Time to move on.</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r456207262-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>456207262</t>
+  </si>
+  <si>
+    <t>01/31/2017</t>
+  </si>
+  <si>
+    <t>Conference Review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was very hesitate on booking this spot because of statements made by other co-partners.  I went ahead made them and their were very surprise on the outcome.  They were VERY HAPPY on the outcome of the rooms.  Staff very pleasant and the rooms very clean.  We definitely will rebook in the future.   Thanks to the Staff.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r447639750-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>447639750</t>
+  </si>
+  <si>
+    <t>12/29/2016</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r441660184-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>441660184</t>
+  </si>
+  <si>
+    <t>12/02/2016</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r438807037-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>438807037</t>
+  </si>
+  <si>
+    <t>11/20/2016</t>
+  </si>
+  <si>
+    <t>super8azusa, Front Office Manager at Super 8 by Wyndham Azusa, responded to this reviewResponded November 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 28, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r431856664-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>431856664</t>
+  </si>
+  <si>
+    <t>10/26/2016</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>your stay with Super 8 was great comfortable bed and lots of channels too watch on the tv and room was very clean. Hats off to the Super 8 crew.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>super8azusa, Front Office Manager at Super 8 by Wyndham Azusa, responded to this reviewResponded October 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 29, 2016</t>
+  </si>
+  <si>
+    <t>your stay with Super 8 was great comfortable bed and lots of channels too watch on the tv and room was very clean. Hats off to the Super 8 crew.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r429871430-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>429871430</t>
+  </si>
+  <si>
+    <t>10/19/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r426986550-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>426986550</t>
+  </si>
+  <si>
+    <t>10/11/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r416255203-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>416255203</t>
+  </si>
+  <si>
+    <t>09/08/2016</t>
+  </si>
+  <si>
+    <t>Rooms where great</t>
+  </si>
+  <si>
+    <t>Customer service wasn't too good, Vanessa was great but the others (owners) were terrible. They need to value each customer and smile. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>super8azusa, Front Office Manager at Super 8 by Wyndham Azusa, responded to this reviewResponded September 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 10, 2016</t>
+  </si>
+  <si>
+    <t>Customer service wasn't too good, Vanessa was great but the others (owners) were terrible. They need to value each customer and smile. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r396393268-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>396393268</t>
+  </si>
+  <si>
+    <t>07/24/2016</t>
+  </si>
+  <si>
+    <t>Here for a baseball tourny</t>
+  </si>
+  <si>
+    <t>We were here for the night due to a very early baseball tourney. We would stay here again. My son left behind one of his pairs of baseball pants , however we didnt realize it till the next day. We called the manager , he promptly called us back when he located the pants, picked them up 2 days later.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>We were here for the night due to a very early baseball tourney. We would stay here again. My son left behind one of his pairs of baseball pants , however we didnt realize it till the next day. We called the manager , he promptly called us back when he located the pants, picked them up 2 days later.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r396310268-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>396310268</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r357605311-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>357605311</t>
+  </si>
+  <si>
+    <t>03/22/2016</t>
+  </si>
+  <si>
+    <t>Drawback</t>
+  </si>
+  <si>
+    <t>The only thing was that when checking in I wasn't allow to have my discount with either the military discount or with the group rate with who I was with.  They stated that the only way to get these discounts is when I reserve on the phone or in person.  I have never heard of this reason before and was disappointed in this way of business.  It states online various discounts so why is this.  Other than this the service was above excellent,MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>super8azusa, Front Office Manager at Super 8 by Wyndham Azusa, responded to this reviewResponded April 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 6, 2016</t>
+  </si>
+  <si>
+    <t>The only thing was that when checking in I wasn't allow to have my discount with either the military discount or with the group rate with who I was with.  They stated that the only way to get these discounts is when I reserve on the phone or in person.  I have never heard of this reason before and was disappointed in this way of business.  It states online various discounts so why is this.  Other than this the service was above excellent,More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r357595542-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>357595542</t>
+  </si>
+  <si>
+    <t>Great staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Although our reservation wasn't made right, the clerk did all he could to help us. We were supposed to get a 2 bed room, but the person that made the reservation on booked a 1 bed. Clerk said there were no more 2 bed rooms available, but he could at least get us a joining room and give us a discount. knowing that the hotel was heavily booked for the night, I feel he did all he could for us. We stay there several times a year and he even recognized us. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r350664272-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>350664272</t>
+  </si>
+  <si>
+    <t>02/24/2016</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r328266664-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>328266664</t>
+  </si>
+  <si>
+    <t>11/21/2015</t>
+  </si>
+  <si>
+    <t>SUPER 8 COMPARRABLES to Motel 6, and The Marriott in Covina.</t>
+  </si>
+  <si>
+    <t>11-21-15, I have been staying in the Super 8 Azusa since Oct.5th, with a few exceptions,because we were only allowed to stay 28 days.We tried the Hotel 6 for 1 night, it was clean, the beds were somewhat a little soft and that was the only thing I liked about it.The Super 8 Azusa the people are very nice, and the maids very accommodating,they will do just about anything to help you,and make your stay comfortable, in fact once I couldn't carry my bags upstairs, (we came back after 2 days stays at other hotels) because I have a bad back. I asked 1 of them to help me, and she did it with ease, and  always with a smile.The rooms aren't as updated as the one we stayed at in Westminster, and that 1 was beautiful but they were pretty much booked by the time we called and we got a handicapped room, which is ideal for anyone who's handicapped.Most everything was upgraded and very nice, 4 stories high, and like mini suites.So before we came back to the 1 in Azusa, because my roomy needed a TV with more than 2 stations like many hotels have,so that is why we came back, and for me the beds in Azusa are too hard, I feel like I am sleeping on the box springs. I wake up every morning in extreme pain but my roomy has to have his TV....11-21-15, I have been staying in the Super 8 Azusa since Oct.5th, with a few exceptions,because we were only allowed to stay 28 days.We tried the Hotel 6 for 1 night, it was clean, the beds were somewhat a little soft and that was the only thing I liked about it.The Super 8 Azusa the people are very nice, and the maids very accommodating,they will do just about anything to help you,and make your stay comfortable, in fact once I couldn't carry my bags upstairs, (we came back after 2 days stays at other hotels) because I have a bad back. I asked 1 of them to help me, and she did it with ease, and  always with a smile.The rooms aren't as updated as the one we stayed at in Westminster, and that 1 was beautiful but they were pretty much booked by the time we called and we got a handicapped room, which is ideal for anyone who's handicapped.Most everything was upgraded and very nice, 4 stories high, and like mini suites.So before we came back to the 1 in Azusa, because my roomy needed a TV with more than 2 stations like many hotels have,so that is why we came back, and for me the beds in Azusa are too hard, I feel like I am sleeping on the box springs. I wake up every morning in extreme pain but my roomy has to have his TV. We are homeless, so you may think that beggars can't be choosy but this 1 can (me) the Super 8 in Westminster except for being a room for the handicapped was really, really nice, and, especially for the money. You'd be wise to go on line and sign up to accumulate points, so if you stay for long periods of time or move around a lot and stay at Super 8's you can rack up points fast and get a free night stay, which we found out about after we had been there for some time. The manager himself told us that we should go on line and find out how many points we had, and check to see if we had enough for a free 1 night stay. Now who does that? He did, at the Super 8 in Azusa, which he was already giving us an amazing discount. So glad I joined their site when I did just wish I'd have found out sooner. When we came back we tried a downstairs but for some reason it was so different on the ground floor which is more practical but upstairs just seems better,stairs or no stairs,or elevator like the 1 in Westminster. We came back and for how long I don't know. Thinking that I will go to 1 of the great department stores and buy a foam bed cover, though we are sleeping on a king size bed I will purchase 1 for the queen size I have in storage.Oh another thing, I had a friend that paid for us to stay at a Marriott hotel which was a suite and had sleep # beds,it was really nice and totally comfortable bed. I am so grateful to him for giving us a place to stay,and start our journey of homelessness.I think that maybe we could have stayed somewhere else cheap for 2 nights for the price he payed for the 1 night at the Marriott.Thank you Candy Randy.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>11-21-15, I have been staying in the Super 8 Azusa since Oct.5th, with a few exceptions,because we were only allowed to stay 28 days.We tried the Hotel 6 for 1 night, it was clean, the beds were somewhat a little soft and that was the only thing I liked about it.The Super 8 Azusa the people are very nice, and the maids very accommodating,they will do just about anything to help you,and make your stay comfortable, in fact once I couldn't carry my bags upstairs, (we came back after 2 days stays at other hotels) because I have a bad back. I asked 1 of them to help me, and she did it with ease, and  always with a smile.The rooms aren't as updated as the one we stayed at in Westminster, and that 1 was beautiful but they were pretty much booked by the time we called and we got a handicapped room, which is ideal for anyone who's handicapped.Most everything was upgraded and very nice, 4 stories high, and like mini suites.So before we came back to the 1 in Azusa, because my roomy needed a TV with more than 2 stations like many hotels have,so that is why we came back, and for me the beds in Azusa are too hard, I feel like I am sleeping on the box springs. I wake up every morning in extreme pain but my roomy has to have his TV....11-21-15, I have been staying in the Super 8 Azusa since Oct.5th, with a few exceptions,because we were only allowed to stay 28 days.We tried the Hotel 6 for 1 night, it was clean, the beds were somewhat a little soft and that was the only thing I liked about it.The Super 8 Azusa the people are very nice, and the maids very accommodating,they will do just about anything to help you,and make your stay comfortable, in fact once I couldn't carry my bags upstairs, (we came back after 2 days stays at other hotels) because I have a bad back. I asked 1 of them to help me, and she did it with ease, and  always with a smile.The rooms aren't as updated as the one we stayed at in Westminster, and that 1 was beautiful but they were pretty much booked by the time we called and we got a handicapped room, which is ideal for anyone who's handicapped.Most everything was upgraded and very nice, 4 stories high, and like mini suites.So before we came back to the 1 in Azusa, because my roomy needed a TV with more than 2 stations like many hotels have,so that is why we came back, and for me the beds in Azusa are too hard, I feel like I am sleeping on the box springs. I wake up every morning in extreme pain but my roomy has to have his TV. We are homeless, so you may think that beggars can't be choosy but this 1 can (me) the Super 8 in Westminster except for being a room for the handicapped was really, really nice, and, especially for the money. You'd be wise to go on line and sign up to accumulate points, so if you stay for long periods of time or move around a lot and stay at Super 8's you can rack up points fast and get a free night stay, which we found out about after we had been there for some time. The manager himself told us that we should go on line and find out how many points we had, and check to see if we had enough for a free 1 night stay. Now who does that? He did, at the Super 8 in Azusa, which he was already giving us an amazing discount. So glad I joined their site when I did just wish I'd have found out sooner. When we came back we tried a downstairs but for some reason it was so different on the ground floor which is more practical but upstairs just seems better,stairs or no stairs,or elevator like the 1 in Westminster. We came back and for how long I don't know. Thinking that I will go to 1 of the great department stores and buy a foam bed cover, though we are sleeping on a king size bed I will purchase 1 for the queen size I have in storage.Oh another thing, I had a friend that paid for us to stay at a Marriott hotel which was a suite and had sleep # beds,it was really nice and totally comfortable bed. I am so grateful to him for giving us a place to stay,and start our journey of homelessness.I think that maybe we could have stayed somewhere else cheap for 2 nights for the price he payed for the 1 night at the Marriott.Thank you Candy Randy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r321445586-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>321445586</t>
+  </si>
+  <si>
+    <t>10/24/2015</t>
+  </si>
+  <si>
+    <t>super8azusa, Front Office Manager at Super 8 by Wyndham Azusa, responded to this reviewResponded November 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 12, 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r320108553-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>320108553</t>
+  </si>
+  <si>
+    <t>10/19/2015</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>Place was clean and upgraded to contemporary design. I had room #223, although spacious, I could hear people next door, and that's about my only reason why I put average. Breakfast was available by 6 :)MoreShow less</t>
+  </si>
+  <si>
+    <t>Place was clean and upgraded to contemporary design. I had room #223, although spacious, I could hear people next door, and that's about my only reason why I put average. Breakfast was available by 6 :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r299294402-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>299294402</t>
+  </si>
+  <si>
+    <t>08/14/2015</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r298454440-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>298454440</t>
+  </si>
+  <si>
+    <t>08/12/2015</t>
+  </si>
+  <si>
+    <t>Bare Minimum with Less Than Appropriate Safety Measures</t>
+  </si>
+  <si>
+    <t>I booked this stay as a part of award travel through my Skymiles card. The location is in a seedy part of town, but it isn’t too bad if you aren’t traveling alone. There is no elevator at this property and we were given an upstairs room. I completely understand why because of limited availability; however, it was a bit of a hassle as I have cerebral palsy. I don’t hold it against the motel though. The parking situation is a bit odd in that there is some parking in the front and the rest is located behind the motel; we did not feel comfortable parking the car back there. The room smelled heavily of pot when we entered and no one felt okay about walking around the room without shoes. The bedding was clean, but old and worn. The pillows were flat and the mattress hard and a bit pokey. The channel selection was fairly good and the room had a fridge, microwave, and coffee pot. Be warned, the coffee is awful. The bathroom was small, the water pressure in the shower was minimal at best, and the towels had cigarette burns in them. The wifi was free and was okay considering it was free. They offered a free breakfast as well, but we did not partake, so I’m sorry I can’t help you there. As I mentioned previously, there is no elevator, but there are 2 sets of...I booked this stay as a part of award travel through my Skymiles card. The location is in a seedy part of town, but it isn’t too bad if you aren’t traveling alone. There is no elevator at this property and we were given an upstairs room. I completely understand why because of limited availability; however, it was a bit of a hassle as I have cerebral palsy. I don’t hold it against the motel though. The parking situation is a bit odd in that there is some parking in the front and the rest is located behind the motel; we did not feel comfortable parking the car back there. The room smelled heavily of pot when we entered and no one felt okay about walking around the room without shoes. The bedding was clean, but old and worn. The pillows were flat and the mattress hard and a bit pokey. The channel selection was fairly good and the room had a fridge, microwave, and coffee pot. Be warned, the coffee is awful. The bathroom was small, the water pressure in the shower was minimal at best, and the towels had cigarette burns in them. The wifi was free and was okay considering it was free. They offered a free breakfast as well, but we did not partake, so I’m sorry I can’t help you there. As I mentioned previously, there is no elevator, but there are 2 sets of stairs. One set leads from flat ground right onto the staircase, the other set has a rather high step up from the pavement before leading up to the staircase. This staircase is located closest to the outdoor spa, so it is pretty consistently wet. The really dangerous thing about the big step is that it is not clearly marked furthermore, it is painted the same color as the pavement below. Due to this lack of visibility, I missed the step entirely and landed on my stomach on the pavement. I hurt my ribs and knees and with my husband’s help made it to the car. I sent him into the office to inform the employee of what had just happened. He did not seem all that concerned and simply explained why we didn’t get a downstairs room. I was not asked to fill out any kind of paperwork and I seriously doubt they will change anything.MoreShow less</t>
+  </si>
+  <si>
+    <t>I booked this stay as a part of award travel through my Skymiles card. The location is in a seedy part of town, but it isn’t too bad if you aren’t traveling alone. There is no elevator at this property and we were given an upstairs room. I completely understand why because of limited availability; however, it was a bit of a hassle as I have cerebral palsy. I don’t hold it against the motel though. The parking situation is a bit odd in that there is some parking in the front and the rest is located behind the motel; we did not feel comfortable parking the car back there. The room smelled heavily of pot when we entered and no one felt okay about walking around the room without shoes. The bedding was clean, but old and worn. The pillows were flat and the mattress hard and a bit pokey. The channel selection was fairly good and the room had a fridge, microwave, and coffee pot. Be warned, the coffee is awful. The bathroom was small, the water pressure in the shower was minimal at best, and the towels had cigarette burns in them. The wifi was free and was okay considering it was free. They offered a free breakfast as well, but we did not partake, so I’m sorry I can’t help you there. As I mentioned previously, there is no elevator, but there are 2 sets of...I booked this stay as a part of award travel through my Skymiles card. The location is in a seedy part of town, but it isn’t too bad if you aren’t traveling alone. There is no elevator at this property and we were given an upstairs room. I completely understand why because of limited availability; however, it was a bit of a hassle as I have cerebral palsy. I don’t hold it against the motel though. The parking situation is a bit odd in that there is some parking in the front and the rest is located behind the motel; we did not feel comfortable parking the car back there. The room smelled heavily of pot when we entered and no one felt okay about walking around the room without shoes. The bedding was clean, but old and worn. The pillows were flat and the mattress hard and a bit pokey. The channel selection was fairly good and the room had a fridge, microwave, and coffee pot. Be warned, the coffee is awful. The bathroom was small, the water pressure in the shower was minimal at best, and the towels had cigarette burns in them. The wifi was free and was okay considering it was free. They offered a free breakfast as well, but we did not partake, so I’m sorry I can’t help you there. As I mentioned previously, there is no elevator, but there are 2 sets of stairs. One set leads from flat ground right onto the staircase, the other set has a rather high step up from the pavement before leading up to the staircase. This staircase is located closest to the outdoor spa, so it is pretty consistently wet. The really dangerous thing about the big step is that it is not clearly marked furthermore, it is painted the same color as the pavement below. Due to this lack of visibility, I missed the step entirely and landed on my stomach on the pavement. I hurt my ribs and knees and with my husband’s help made it to the car. I sent him into the office to inform the employee of what had just happened. He did not seem all that concerned and simply explained why we didn’t get a downstairs room. I was not asked to fill out any kind of paperwork and I seriously doubt they will change anything.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r297119063-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>297119063</t>
+  </si>
+  <si>
+    <t>08/09/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r291873327-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>291873327</t>
+  </si>
+  <si>
+    <t>07/23/2015</t>
+  </si>
+  <si>
+    <t>Great Place to Stay!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a great place to stay! I have had to stay 3 separate occasions; usually days to a week at at time. Room is clean, housekeepers friendly, and the office staff accommodating, very friendly, and want you to enjoy your stay. Also, unlike the other Super 8 in Pasadena where I have stayed, this one in Azusa were happy to give me a great daily rate reduction! </t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r288692606-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>288692606</t>
+  </si>
+  <si>
+    <t>07/13/2015</t>
+  </si>
+  <si>
+    <t>Relaxation</t>
+  </si>
+  <si>
+    <t>I have been to this location often.   I noticed new window curtains, carpet and bedspreads.   Excellent breakfast where you can make waffles, plus they have fresh fruit, cold cereal, juices and rolls.   Staff always helpful and welcoming.   Ideal location off freeway on main street close to many food places such as In 'n Out.   I feel very comfortable there.   My refrigerator didn't work and I was immediately moved to a new room.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r278889838-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>278889838</t>
+  </si>
+  <si>
+    <t>06/08/2015</t>
+  </si>
+  <si>
+    <t>Scam artists</t>
+  </si>
+  <si>
+    <t>If I could give this place no stars, I would! They gave me a room with an a.c. that barely work and when I asked to switch rooms, the young punk at the front desk tried to play games and wanted to argue with me. He claimed he saw me in the room for 2 HRS with was a lie. I turned the a.c. down to the coldest temp and walked up the street to eat hoping to come back to a cool room. I came back later to a room that was as warm as it was when I left. SMH @  this establishment and the young punk who checked me in. Never again will I stay here as this I'd one of the worst super 8 stays for me!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>If I could give this place no stars, I would! They gave me a room with an a.c. that barely work and when I asked to switch rooms, the young punk at the front desk tried to play games and wanted to argue with me. He claimed he saw me in the room for 2 HRS with was a lie. I turned the a.c. down to the coldest temp and walked up the street to eat hoping to come back to a cool room. I came back later to a room that was as warm as it was when I left. SMH @  this establishment and the young punk who checked me in. Never again will I stay here as this I'd one of the worst super 8 stays for me!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r275115695-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>275115695</t>
+  </si>
+  <si>
+    <t>05/27/2015</t>
+  </si>
+  <si>
+    <t>Great place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great place, very friendly staff, room was very clean new carpet, new flat screen tv, comfie beds, clean swimming pool, great parking lights.  </t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r272860950-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>272860950</t>
+  </si>
+  <si>
+    <t>05/18/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r271408352-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>271408352</t>
+  </si>
+  <si>
+    <t>05/11/2015</t>
+  </si>
+  <si>
+    <t>Super Super 8!</t>
+  </si>
+  <si>
+    <t>I spent two nights at the Super 8 Asuza during the month of April 2015 and I feel like saying that this is one of the best Super 8 I've ever stayed in. At the ckeck in I was impressed by the kindness and professionalism of both the owner/manager and of the young employee on duty . The motel exterior was perfectly clean and renovated, offering a very positive general first impression. The real surprise , however, was given by the room. Both times I was given a ground floor room and in both cases it was ample, impeccably clean, equipped with microwave, coffe maker , fridge, iron and iron board and a valid wi fi connection. The bed was definitely comfortable and hot water ready available. Guests in the morning are offered a valid continental breakfast and, despite I did not make use of it, they can enjoy a small relaxing pool. The location is convenient, just outside an exit of  highway 210 and right on the 39. Considering the prices of accomodations in the area Super 8 Asuza offers the best deal in a radius of several miles, probably the best alternative to the overpriced Pasadena motels. Would I stay at this Super 8 once again? Yes, without any doubt, from now on it'll be my base when in the area. Will I recommend it a friend? Yes, without any doubt. Last but not least  it's been the...I spent two nights at the Super 8 Asuza during the month of April 2015 and I feel like saying that this is one of the best Super 8 I've ever stayed in. At the ckeck in I was impressed by the kindness and professionalism of both the owner/manager and of the young employee on duty . The motel exterior was perfectly clean and renovated, offering a very positive general first impression. The real surprise , however, was given by the room. Both times I was given a ground floor room and in both cases it was ample, impeccably clean, equipped with microwave, coffe maker , fridge, iron and iron board and a valid wi fi connection. The bed was definitely comfortable and hot water ready available. Guests in the morning are offered a valid continental breakfast and, despite I did not make use of it, they can enjoy a small relaxing pool. The location is convenient, just outside an exit of  highway 210 and right on the 39. Considering the prices of accomodations in the area Super 8 Asuza offers the best deal in a radius of several miles, probably the best alternative to the overpriced Pasadena motels. Would I stay at this Super 8 once again? Yes, without any doubt, from now on it'll be my base when in the area. Will I recommend it a friend? Yes, without any doubt. Last but not least  it's been the only Wyndham motel I was given without a later claim my Wyndham rewards points. This also proves the seriousness of the staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>I spent two nights at the Super 8 Asuza during the month of April 2015 and I feel like saying that this is one of the best Super 8 I've ever stayed in. At the ckeck in I was impressed by the kindness and professionalism of both the owner/manager and of the young employee on duty . The motel exterior was perfectly clean and renovated, offering a very positive general first impression. The real surprise , however, was given by the room. Both times I was given a ground floor room and in both cases it was ample, impeccably clean, equipped with microwave, coffe maker , fridge, iron and iron board and a valid wi fi connection. The bed was definitely comfortable and hot water ready available. Guests in the morning are offered a valid continental breakfast and, despite I did not make use of it, they can enjoy a small relaxing pool. The location is convenient, just outside an exit of  highway 210 and right on the 39. Considering the prices of accomodations in the area Super 8 Asuza offers the best deal in a radius of several miles, probably the best alternative to the overpriced Pasadena motels. Would I stay at this Super 8 once again? Yes, without any doubt, from now on it'll be my base when in the area. Will I recommend it a friend? Yes, without any doubt. Last but not least  it's been the...I spent two nights at the Super 8 Asuza during the month of April 2015 and I feel like saying that this is one of the best Super 8 I've ever stayed in. At the ckeck in I was impressed by the kindness and professionalism of both the owner/manager and of the young employee on duty . The motel exterior was perfectly clean and renovated, offering a very positive general first impression. The real surprise , however, was given by the room. Both times I was given a ground floor room and in both cases it was ample, impeccably clean, equipped with microwave, coffe maker , fridge, iron and iron board and a valid wi fi connection. The bed was definitely comfortable and hot water ready available. Guests in the morning are offered a valid continental breakfast and, despite I did not make use of it, they can enjoy a small relaxing pool. The location is convenient, just outside an exit of  highway 210 and right on the 39. Considering the prices of accomodations in the area Super 8 Asuza offers the best deal in a radius of several miles, probably the best alternative to the overpriced Pasadena motels. Would I stay at this Super 8 once again? Yes, without any doubt, from now on it'll be my base when in the area. Will I recommend it a friend? Yes, without any doubt. Last but not least  it's been the only Wyndham motel I was given without a later claim my Wyndham rewards points. This also proves the seriousness of the staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r267520484-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>267520484</t>
+  </si>
+  <si>
+    <t>04/23/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r266943891-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>266943891</t>
+  </si>
+  <si>
+    <t>04/20/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r265732219-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>265732219</t>
+  </si>
+  <si>
+    <t>04/14/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r256420541-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>256420541</t>
+  </si>
+  <si>
+    <t>02/25/2015</t>
+  </si>
+  <si>
+    <t>Nice and quiet for a short stayover</t>
+  </si>
+  <si>
+    <t>Wasn't sure if there would be a room available on a holiday weekend, but so a quick Google search brought me here. The directions were a bit goofy as I didn't know that San Gabriel turned so my GPS led me astray.Found my way eventually and was greeted politely by a young lady who was still learning the check in system. She accommodated my request for a ground floor room with parking out front so my bike could be in view after ensuring that I would be alright with a smoking room.The room was spacious and clean, with a comfortable bed, large TV, and small fridge. There was several ash trays around and a faint smell of smoke, but nothing overpowering and certainly not bothersome to me (thank you Nevada casinos...). I was able to find ample power plugs for my various gizmos and a short walk across the street had me fed. Plenty of nearby gas stations got both my and my motorcycle's tanks filled in the morning.Only small critique was a neighboring room left some water running for a long time and the noise was distinctive. Shutting the bathroom door toned it down a bit, but I could still hear it when I went to bed.Pleasant place to stay and perfectly located for a quick ride up to the mountains for some fun on the twisty roads.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>super8azusa, Manager at Super 8 by Wyndham Azusa, responded to this reviewResponded February 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 28, 2015</t>
+  </si>
+  <si>
+    <t>Wasn't sure if there would be a room available on a holiday weekend, but so a quick Google search brought me here. The directions were a bit goofy as I didn't know that San Gabriel turned so my GPS led me astray.Found my way eventually and was greeted politely by a young lady who was still learning the check in system. She accommodated my request for a ground floor room with parking out front so my bike could be in view after ensuring that I would be alright with a smoking room.The room was spacious and clean, with a comfortable bed, large TV, and small fridge. There was several ash trays around and a faint smell of smoke, but nothing overpowering and certainly not bothersome to me (thank you Nevada casinos...). I was able to find ample power plugs for my various gizmos and a short walk across the street had me fed. Plenty of nearby gas stations got both my and my motorcycle's tanks filled in the morning.Only small critique was a neighboring room left some water running for a long time and the noise was distinctive. Shutting the bathroom door toned it down a bit, but I could still hear it when I went to bed.Pleasant place to stay and perfectly located for a quick ride up to the mountains for some fun on the twisty roads.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r255362441-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>255362441</t>
+  </si>
+  <si>
+    <t>02/19/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r244471883-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>244471883</t>
+  </si>
+  <si>
+    <t>12/14/2014</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r235449552-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>235449552</t>
+  </si>
+  <si>
+    <t>10/20/2014</t>
+  </si>
+  <si>
+    <t>There are better options out there</t>
+  </si>
+  <si>
+    <t>When we first arrived, there was little parking available.  We were told there was additional parking in back, out of view from our room.  The room was a good size.  The furniture was dated, the sheets, blankets, and carpet all showed a lot of wear.  The room was clean. There were also 2 televisions in the room, for some reason.  The motel is located on a very busy street and we were awaken several times by emergency vehicles with sirens blaring speeding past.  We travel to this area several times per year and won't be staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>When we first arrived, there was little parking available.  We were told there was additional parking in back, out of view from our room.  The room was a good size.  The furniture was dated, the sheets, blankets, and carpet all showed a lot of wear.  The room was clean. There were also 2 televisions in the room, for some reason.  The motel is located on a very busy street and we were awaken several times by emergency vehicles with sirens blaring speeding past.  We travel to this area several times per year and won't be staying here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r230201466-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>230201466</t>
+  </si>
+  <si>
+    <t>09/21/2014</t>
+  </si>
+  <si>
+    <t>SUPER 8 is clean and comfortable</t>
+  </si>
+  <si>
+    <t>THIS Place comes equipped with a lot of stuff hands on, mini coffee machines in room, iron boards, hair dryers...the breakfast is awesome...the owner seems very nice, only rude one is the Indian lady at night...great channels and very accommodating.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r229316290-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>229316290</t>
+  </si>
+  <si>
+    <t>09/16/2014</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r216895761-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>216895761</t>
+  </si>
+  <si>
+    <t>07/22/2014</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>When we arrived, we had some problems with our room, because we got different room then we expected. But this was the only problem that we had. Everything else (including breakfast) was very good, I can recommend it.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r216499403-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>216499403</t>
+  </si>
+  <si>
+    <t>07/20/2014</t>
+  </si>
+  <si>
+    <t>very good</t>
+  </si>
+  <si>
+    <t>People are all friendly and helpful.   Have stayed there many times.   Freeway close.   Several eateries walking distance.   Property is older but always clean.   Good continental breakfast.   Wi Fi slow at times.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r216285374-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>216285374</t>
+  </si>
+  <si>
+    <t>07/19/2014</t>
+  </si>
+  <si>
+    <t>Very pleasantly surprised</t>
+  </si>
+  <si>
+    <t>After arriving at this property, we found we were in the second floor; I called the office to request a transfer due to my disability and was accommodated. Nick in the office was very efficient in all our requests.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r204831066-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>204831066</t>
+  </si>
+  <si>
+    <t>05/09/2014</t>
+  </si>
+  <si>
+    <t>Clean!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very clean and quiet! I'm always checking if the sheets/pillows/towels are clean and they sure were... room was big and affordable. Large flat screen mounted on wall.  Staff was very friendly... For sure I would stay here again. </t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r202906748-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>202906748</t>
+  </si>
+  <si>
+    <t>04/26/2014</t>
+  </si>
+  <si>
+    <t>super8azusa, Front Office Manager at Super 8 by Wyndham Azusa, responded to this reviewResponded April 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 29, 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r200986948-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>200986948</t>
+  </si>
+  <si>
+    <t>04/13/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r189561541-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>189561541</t>
+  </si>
+  <si>
+    <t>01/03/2014</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>super8azusa, Manager at Super 8 by Wyndham Azusa, responded to this reviewResponded March 12, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 12, 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r188779211-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>188779211</t>
+  </si>
+  <si>
+    <t>12/28/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r182135100-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>182135100</t>
+  </si>
+  <si>
+    <t>10/23/2013</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r174538661-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>174538661</t>
+  </si>
+  <si>
+    <t>08/28/2013</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r164250199-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>164250199</t>
+  </si>
+  <si>
+    <t>06/17/2013</t>
+  </si>
+  <si>
+    <t>Worth it</t>
+  </si>
+  <si>
+    <t>The room was cheap and surprisingly clean. I only stayed two nights and felt i got my money's worth. The rooms seemed recently upgraded or remodeled. Close to downtown and restaurants and shopping.The breakfast wasn't all that bad eitherMoreShow less</t>
+  </si>
+  <si>
+    <t>The room was cheap and surprisingly clean. I only stayed two nights and felt i got my money's worth. The rooms seemed recently upgraded or remodeled. Close to downtown and restaurants and shopping.The breakfast wasn't all that bad eitherMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r159469463-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>159469463</t>
+  </si>
+  <si>
+    <t>05/02/2013</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>super8azusa, Front Office Manager at Super 8 by Wyndham Azusa, responded to this reviewResponded May 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 8, 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r158537718-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>158537718</t>
+  </si>
+  <si>
+    <t>04/22/2013</t>
+  </si>
+  <si>
+    <t>weekend stayed</t>
+  </si>
+  <si>
+    <t>I stayed every weekend. I liked to room service .Front desk was very supportive and polite.  Convenient  location to 210 free way and APU university . I had a pleasant time here with my family every weekend. The room had a fridge,micro,coffee maker and hair dryer.we did advantage of continental breakfast.they had fresh waffles. Other than that, great value for the money. I would fully recommended this motel.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed every weekend. I liked to room service .Front desk was very supportive and polite.  Convenient  location to 210 free way and APU university . I had a pleasant time here with my family every weekend. The room had a fridge,micro,coffee maker and hair dryer.we did advantage of continental breakfast.they had fresh waffles. Other than that, great value for the money. I would fully recommended this motel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r158425166-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>158425166</t>
+  </si>
+  <si>
+    <t>04/21/2013</t>
+  </si>
+  <si>
+    <t>thank you</t>
+  </si>
+  <si>
+    <t>I liked the service so much and the hospitality . Nick in the front disk was very polite and  friendlyMoreShow less</t>
+  </si>
+  <si>
+    <t>I liked the service so much and the hospitality . Nick in the front disk was very polite and  friendlyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r153977363-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>153977363</t>
+  </si>
+  <si>
+    <t>03/07/2013</t>
+  </si>
+  <si>
+    <t>Great deal for APU parents</t>
+  </si>
+  <si>
+    <t>We have been staying at the Super 8 Azusa over the past four years while our daughter attended Azusa Pacific University. It's not on the APU parent motel list, but we're not sure why not.  It is extremely convenient to the school and to the freeway, has very well-kept interiors and bathrooms, and is extremely clean.  A (very) little road noise, but hey -- it's a deal at about one half the price of the (much further) hotels in Arcadia and Pasadena-- and you can usually reserve a room here when everything else is booked solid. No, it's not the Marriott-- but when you're going to APU to visit your student, (and already spending a lot of money on travel, tuition, etc.), it's great.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>super8azusa, Manager at Super 8 by Wyndham Azusa, responded to this reviewResponded March 12, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 12, 2013</t>
+  </si>
+  <si>
+    <t>We have been staying at the Super 8 Azusa over the past four years while our daughter attended Azusa Pacific University. It's not on the APU parent motel list, but we're not sure why not.  It is extremely convenient to the school and to the freeway, has very well-kept interiors and bathrooms, and is extremely clean.  A (very) little road noise, but hey -- it's a deal at about one half the price of the (much further) hotels in Arcadia and Pasadena-- and you can usually reserve a room here when everything else is booked solid. No, it's not the Marriott-- but when you're going to APU to visit your student, (and already spending a lot of money on travel, tuition, etc.), it's great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r144615457-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>144615457</t>
+  </si>
+  <si>
+    <t>11/05/2012</t>
+  </si>
+  <si>
+    <t>Comfortable and clean</t>
+  </si>
+  <si>
+    <t>We had tickets to the Breeder's Cup 2013 in Sta. Anita and the closest accommodation we could get is this motel. We were pleasantly surprised that it was clean and comfortable.  Although wedid not take advantage much of their breakfast as we left very early, it seemed that they hada fairly decent selection of pastry, fresh waffles, fruits tea and coffee.  The room was equippedwith a small microwave and a bar fridge which came in very handy for us as my husband isdiabetic.  The only negative thing we found was that they are still using bed covers withcigarettte holes in them.  Apart from this, we had no major issues with the motel. For short stays,we would consider staying there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>super8azusa, Manager at Super 8 by Wyndham Azusa, responded to this reviewResponded December 13, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 13, 2012</t>
+  </si>
+  <si>
+    <t>We had tickets to the Breeder's Cup 2013 in Sta. Anita and the closest accommodation we could get is this motel. We were pleasantly surprised that it was clean and comfortable.  Although wedid not take advantage much of their breakfast as we left very early, it seemed that they hada fairly decent selection of pastry, fresh waffles, fruits tea and coffee.  The room was equippedwith a small microwave and a bar fridge which came in very handy for us as my husband isdiabetic.  The only negative thing we found was that they are still using bed covers withcigarettte holes in them.  Apart from this, we had no major issues with the motel. For short stays,we would consider staying there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r142984125-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>142984125</t>
+  </si>
+  <si>
+    <t>10/16/2012</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r125308371-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>125308371</t>
+  </si>
+  <si>
+    <t>02/27/2012</t>
+  </si>
+  <si>
+    <t>Adequate is the best I can say</t>
+  </si>
+  <si>
+    <t>Room was OK at best, the beds are very hard, no extra pillow's available in entire hotel, but the worse thing was the noise. Right on a busy road close to a major highway. Late night clientele very noisy, which leads me to believe they rent out cheep to transient locals after hours. Very noisy neighbors in room next door (adjoining). Toilet fill line leaked on floor, and roach was found enjoying the water. I will not be staying there ever again even though the rate was cheep. Its true, you get what you pay for.</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r18210732-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>18210732</t>
+  </si>
+  <si>
+    <t>07/24/2008</t>
+  </si>
+  <si>
+    <t>I would expect more of Super 8</t>
+  </si>
+  <si>
+    <t>We are a senior couple in our 70’s staying at this motel in room115 prior to and after a visit to City of Hope Medical Facility which is just 5 freeway miles distant. Reservations for a ground floor king bed non-smoking room were made through the Super 8 website at a cost of $61.00 total per night without a problem.
+Although there is no indication that this is a handicapped room I presume it to be as there are two so designated parking spots in front of it. It is not however outfitted for handicapped nor marked as such.
+The motel, located on and very close to a busy and noisy street is old and obviously remodeled “on the cheap”.
+We waited until 2:30pm for our 2:00pm room to be ready and found it very small but clean and free of any lingering odor.
+All lighting and appliances (including the fridge and microwave) worked well although there was a slight problem regulating the A/C.
+The very small bathroom with toilet and tub/shower are apart from the vanity top, sink and mirror.
+Water pressure and drainage were very good.
+Irregular bathroom tile and a 1” gap between the room door to the outside and the floor caused cool air to leave the room and dust, noise, cigarette smoke and bugs to enter. It was necessary to place a folded bath towel on the floor to cover the wide gap. The door...We are a senior couple in our 70’s staying at this motel in room115 prior to and after a visit to City of Hope Medical Facility which is just 5 freeway miles distant. Reservations for a ground floor king bed non-smoking room were made through the Super 8 website at a cost of $61.00 total per night without a problem.Although there is no indication that this is a handicapped room I presume it to be as there are two so designated parking spots in front of it. It is not however outfitted for handicapped nor marked as such.The motel, located on and very close to a busy and noisy street is old and obviously remodeled “on the cheap”.We waited until 2:30pm for our 2:00pm room to be ready and found it very small but clean and free of any lingering odor.All lighting and appliances (including the fridge and microwave) worked well although there was a slight problem regulating the A/C.The very small bathroom with toilet and tub/shower are apart from the vanity top, sink and mirror.Water pressure and drainage were very good.Irregular bathroom tile and a 1” gap between the room door to the outside and the floor caused cool air to leave the room and dust, noise, cigarette smoke and bugs to enter. It was necessary to place a folded bath towel on the floor to cover the wide gap. The door to room 116 was noted to be the same. The bed was fairly comfortable but street noise (apparently there is no car stereo amplifier law in Azusa) and squeaky and slamming motel doors make it difficult to sleep.There is no desk person at night and on the last day of our stay a person from the living quarters in back had to be awakened at 6:15am to open for the 6:00am claimed breakfast. On neither day was there a USA Today newspaper as promised. Breakfast was meager with an offering of two cold cereals; packaged sweet rolls; coffee; milk and imitation orange juice which can be eaten in the tiny lobby at the table with three chairs.There is Internet high speed access but it requires you to obtain a motel identifier code, username and password at the front desk to get on-line.Check-out is without problem as your billing is done at check-in.Easy freeway access either East or West on the 210 from this location.We might stay here again, if necessary, but will check out the across the street Rodeway Inn and the Best Value Inn down the block.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2008</t>
+  </si>
+  <si>
+    <t>We are a senior couple in our 70’s staying at this motel in room115 prior to and after a visit to City of Hope Medical Facility which is just 5 freeway miles distant. Reservations for a ground floor king bed non-smoking room were made through the Super 8 website at a cost of $61.00 total per night without a problem.
+Although there is no indication that this is a handicapped room I presume it to be as there are two so designated parking spots in front of it. It is not however outfitted for handicapped nor marked as such.
+The motel, located on and very close to a busy and noisy street is old and obviously remodeled “on the cheap”.
+We waited until 2:30pm for our 2:00pm room to be ready and found it very small but clean and free of any lingering odor.
+All lighting and appliances (including the fridge and microwave) worked well although there was a slight problem regulating the A/C.
+The very small bathroom with toilet and tub/shower are apart from the vanity top, sink and mirror.
+Water pressure and drainage were very good.
+Irregular bathroom tile and a 1” gap between the room door to the outside and the floor caused cool air to leave the room and dust, noise, cigarette smoke and bugs to enter. It was necessary to place a folded bath towel on the floor to cover the wide gap. The door...We are a senior couple in our 70’s staying at this motel in room115 prior to and after a visit to City of Hope Medical Facility which is just 5 freeway miles distant. Reservations for a ground floor king bed non-smoking room were made through the Super 8 website at a cost of $61.00 total per night without a problem.Although there is no indication that this is a handicapped room I presume it to be as there are two so designated parking spots in front of it. It is not however outfitted for handicapped nor marked as such.The motel, located on and very close to a busy and noisy street is old and obviously remodeled “on the cheap”.We waited until 2:30pm for our 2:00pm room to be ready and found it very small but clean and free of any lingering odor.All lighting and appliances (including the fridge and microwave) worked well although there was a slight problem regulating the A/C.The very small bathroom with toilet and tub/shower are apart from the vanity top, sink and mirror.Water pressure and drainage were very good.Irregular bathroom tile and a 1” gap between the room door to the outside and the floor caused cool air to leave the room and dust, noise, cigarette smoke and bugs to enter. It was necessary to place a folded bath towel on the floor to cover the wide gap. The door to room 116 was noted to be the same. The bed was fairly comfortable but street noise (apparently there is no car stereo amplifier law in Azusa) and squeaky and slamming motel doors make it difficult to sleep.There is no desk person at night and on the last day of our stay a person from the living quarters in back had to be awakened at 6:15am to open for the 6:00am claimed breakfast. On neither day was there a USA Today newspaper as promised. Breakfast was meager with an offering of two cold cereals; packaged sweet rolls; coffee; milk and imitation orange juice which can be eaten in the tiny lobby at the table with three chairs.There is Internet high speed access but it requires you to obtain a motel identifier code, username and password at the front desk to get on-line.Check-out is without problem as your billing is done at check-in.Easy freeway access either East or West on the 210 from this location.We might stay here again, if necessary, but will check out the across the street Rodeway Inn and the Best Value Inn down the block.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r15816359-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>15816359</t>
+  </si>
+  <si>
+    <t>05/08/2008</t>
+  </si>
+  <si>
+    <t>It had a bed</t>
+  </si>
+  <si>
+    <t>I needed a bed when I went to get my son from APU and this had one.  It was cheap and my room was clean.  You can't expect much when you pay $66 a night.  Only needed it for one night and it worked.</t>
+  </si>
+  <si>
+    <t>May 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r8402682-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
+  </si>
+  <si>
+    <t>8402682</t>
+  </si>
+  <si>
+    <t>08/12/2007</t>
+  </si>
+  <si>
+    <t>Clean, Comfortable Place to Crash</t>
+  </si>
+  <si>
+    <t>The Super 8 is conveniently located off the 210. It looks a bit worn on the outside, but the rooms are clean, comfortable and very nice. Ours was a king bed and had a hair dryer, ironing board, microwave and fridge. The hotel also offers complimentary wi-fi.  Breakfast was just donuts/muffins, juice, coffee -- not impressive, but that's OK.  My only complaint is that the bed was rock hard (I prefer a little give), but my spouse loved it!</t>
+  </si>
+  <si>
+    <t>August 2007</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1892,5086 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s"/>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s"/>
+      <c r="L6" t="s"/>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" t="s"/>
+      <c r="L7" t="s"/>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>80</v>
+      </c>
+      <c r="O7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" t="s">
+        <v>84</v>
+      </c>
+      <c r="L8" t="s">
+        <v>85</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>86</v>
+      </c>
+      <c r="O8" t="s">
+        <v>60</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>88</v>
+      </c>
+      <c r="J9" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" t="s"/>
+      <c r="L9" t="s"/>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>86</v>
+      </c>
+      <c r="O9" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10" t="s">
+        <v>92</v>
+      </c>
+      <c r="K10" t="s">
+        <v>93</v>
+      </c>
+      <c r="L10" t="s">
+        <v>94</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>95</v>
+      </c>
+      <c r="O10" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11" t="s">
+        <v>99</v>
+      </c>
+      <c r="K11" t="s"/>
+      <c r="L11" t="s">
+        <v>71</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>100</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>102</v>
+      </c>
+      <c r="J12" t="s">
+        <v>103</v>
+      </c>
+      <c r="K12" t="s">
+        <v>104</v>
+      </c>
+      <c r="L12" t="s">
+        <v>105</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>100</v>
+      </c>
+      <c r="O12" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>106</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>107</v>
+      </c>
+      <c r="J13" t="s">
+        <v>108</v>
+      </c>
+      <c r="K13" t="s"/>
+      <c r="L13" t="s"/>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>100</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>109</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>110</v>
+      </c>
+      <c r="J14" t="s">
+        <v>111</v>
+      </c>
+      <c r="K14" t="s">
+        <v>112</v>
+      </c>
+      <c r="L14" t="s">
+        <v>113</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>114</v>
+      </c>
+      <c r="O14" t="s">
+        <v>60</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>115</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>116</v>
+      </c>
+      <c r="J15" t="s">
+        <v>117</v>
+      </c>
+      <c r="K15" t="s">
+        <v>118</v>
+      </c>
+      <c r="L15" t="s">
+        <v>119</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>120</v>
+      </c>
+      <c r="O15" t="s">
+        <v>67</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>122</v>
+      </c>
+      <c r="J16" t="s">
+        <v>123</v>
+      </c>
+      <c r="K16" t="s">
+        <v>124</v>
+      </c>
+      <c r="L16" t="s">
+        <v>125</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>126</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>127</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>128</v>
+      </c>
+      <c r="J17" t="s">
+        <v>129</v>
+      </c>
+      <c r="K17" t="s"/>
+      <c r="L17" t="s">
+        <v>71</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>126</v>
+      </c>
+      <c r="O17" t="s">
+        <v>130</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>2</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>131</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>132</v>
+      </c>
+      <c r="J18" t="s">
+        <v>133</v>
+      </c>
+      <c r="K18" t="s"/>
+      <c r="L18" t="s"/>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>126</v>
+      </c>
+      <c r="O18" t="s">
+        <v>60</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>134</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>135</v>
+      </c>
+      <c r="J19" t="s">
+        <v>136</v>
+      </c>
+      <c r="K19" t="s">
+        <v>137</v>
+      </c>
+      <c r="L19" t="s">
+        <v>138</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>126</v>
+      </c>
+      <c r="O19" t="s">
+        <v>139</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>140</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>141</v>
+      </c>
+      <c r="J20" t="s">
+        <v>142</v>
+      </c>
+      <c r="K20" t="s">
+        <v>143</v>
+      </c>
+      <c r="L20" t="s">
+        <v>144</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>114</v>
+      </c>
+      <c r="O20" t="s">
+        <v>139</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>145</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>146</v>
+      </c>
+      <c r="J21" t="s">
+        <v>147</v>
+      </c>
+      <c r="K21" t="s"/>
+      <c r="L21" t="s"/>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>148</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>149</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>150</v>
+      </c>
+      <c r="J22" t="s">
+        <v>151</v>
+      </c>
+      <c r="K22" t="s"/>
+      <c r="L22" t="s"/>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>148</v>
+      </c>
+      <c r="O22" t="s">
+        <v>60</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>152</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>153</v>
+      </c>
+      <c r="J23" t="s">
+        <v>154</v>
+      </c>
+      <c r="K23" t="s"/>
+      <c r="L23" t="s"/>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>148</v>
+      </c>
+      <c r="O23" t="s">
+        <v>60</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>155</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>156</v>
+      </c>
+      <c r="J24" t="s">
+        <v>157</v>
+      </c>
+      <c r="K24" t="s">
+        <v>158</v>
+      </c>
+      <c r="L24" t="s">
+        <v>159</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>160</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>2</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>161</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>162</v>
+      </c>
+      <c r="J25" t="s">
+        <v>163</v>
+      </c>
+      <c r="K25" t="s">
+        <v>164</v>
+      </c>
+      <c r="L25" t="s">
+        <v>165</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>160</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>166</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>167</v>
+      </c>
+      <c r="J26" t="s">
+        <v>168</v>
+      </c>
+      <c r="K26" t="s"/>
+      <c r="L26" t="s"/>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>169</v>
+      </c>
+      <c r="O26" t="s">
+        <v>67</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>170</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>171</v>
+      </c>
+      <c r="J27" t="s">
+        <v>172</v>
+      </c>
+      <c r="K27" t="s"/>
+      <c r="L27" t="s"/>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>173</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>174</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>175</v>
+      </c>
+      <c r="J28" t="s">
+        <v>176</v>
+      </c>
+      <c r="K28" t="s"/>
+      <c r="L28" t="s">
+        <v>71</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>173</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>2</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>177</v>
+      </c>
+      <c r="X28" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>179</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>180</v>
+      </c>
+      <c r="J29" t="s">
+        <v>181</v>
+      </c>
+      <c r="K29" t="s">
+        <v>182</v>
+      </c>
+      <c r="L29" t="s">
+        <v>183</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>184</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>185</v>
+      </c>
+      <c r="X29" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>188</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>189</v>
+      </c>
+      <c r="J30" t="s">
+        <v>190</v>
+      </c>
+      <c r="K30" t="s"/>
+      <c r="L30" t="s"/>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>184</v>
+      </c>
+      <c r="O30" t="s">
+        <v>139</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>191</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>192</v>
+      </c>
+      <c r="J31" t="s">
+        <v>193</v>
+      </c>
+      <c r="K31" t="s"/>
+      <c r="L31" t="s"/>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>184</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>194</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>195</v>
+      </c>
+      <c r="J32" t="s">
+        <v>196</v>
+      </c>
+      <c r="K32" t="s">
+        <v>197</v>
+      </c>
+      <c r="L32" t="s">
+        <v>198</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>199</v>
+      </c>
+      <c r="O32" t="s">
+        <v>60</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>1</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>200</v>
+      </c>
+      <c r="X32" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>203</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>204</v>
+      </c>
+      <c r="J33" t="s">
+        <v>205</v>
+      </c>
+      <c r="K33" t="s">
+        <v>206</v>
+      </c>
+      <c r="L33" t="s">
+        <v>207</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>208</v>
+      </c>
+      <c r="O33" t="s">
+        <v>67</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>200</v>
+      </c>
+      <c r="X33" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>210</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>211</v>
+      </c>
+      <c r="J34" t="s">
+        <v>205</v>
+      </c>
+      <c r="K34" t="s"/>
+      <c r="L34" t="s">
+        <v>71</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>208</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>200</v>
+      </c>
+      <c r="X34" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>212</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>213</v>
+      </c>
+      <c r="J35" t="s">
+        <v>214</v>
+      </c>
+      <c r="K35" t="s">
+        <v>215</v>
+      </c>
+      <c r="L35" t="s">
+        <v>216</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>217</v>
+      </c>
+      <c r="O35" t="s">
+        <v>130</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>218</v>
+      </c>
+      <c r="X35" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>221</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>222</v>
+      </c>
+      <c r="J36" t="s">
+        <v>214</v>
+      </c>
+      <c r="K36" t="s">
+        <v>223</v>
+      </c>
+      <c r="L36" t="s">
+        <v>224</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>217</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>225</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>226</v>
+      </c>
+      <c r="J37" t="s">
+        <v>227</v>
+      </c>
+      <c r="K37" t="s"/>
+      <c r="L37" t="s">
+        <v>71</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>228</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>218</v>
+      </c>
+      <c r="X37" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>229</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>230</v>
+      </c>
+      <c r="J38" t="s">
+        <v>231</v>
+      </c>
+      <c r="K38" t="s">
+        <v>232</v>
+      </c>
+      <c r="L38" t="s">
+        <v>233</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>234</v>
+      </c>
+      <c r="O38" t="s">
+        <v>60</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>218</v>
+      </c>
+      <c r="X38" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>236</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>237</v>
+      </c>
+      <c r="J39" t="s">
+        <v>238</v>
+      </c>
+      <c r="K39" t="s"/>
+      <c r="L39" t="s">
+        <v>71</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>234</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>239</v>
+      </c>
+      <c r="X39" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>241</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>242</v>
+      </c>
+      <c r="J40" t="s">
+        <v>243</v>
+      </c>
+      <c r="K40" t="s">
+        <v>244</v>
+      </c>
+      <c r="L40" t="s">
+        <v>245</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>234</v>
+      </c>
+      <c r="O40" t="s">
+        <v>60</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>239</v>
+      </c>
+      <c r="X40" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>247</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>248</v>
+      </c>
+      <c r="J41" t="s">
+        <v>249</v>
+      </c>
+      <c r="K41" t="s"/>
+      <c r="L41" t="s"/>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>250</v>
+      </c>
+      <c r="O41" t="s">
+        <v>60</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>251</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>252</v>
+      </c>
+      <c r="J42" t="s">
+        <v>253</v>
+      </c>
+      <c r="K42" t="s">
+        <v>254</v>
+      </c>
+      <c r="L42" t="s">
+        <v>255</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="s">
+        <v>250</v>
+      </c>
+      <c r="O42" t="s">
+        <v>130</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>2</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>257</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>258</v>
+      </c>
+      <c r="J43" t="s">
+        <v>259</v>
+      </c>
+      <c r="K43" t="s"/>
+      <c r="L43" t="s"/>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="s">
+        <v>250</v>
+      </c>
+      <c r="O43" t="s">
+        <v>60</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>260</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>261</v>
+      </c>
+      <c r="J44" t="s">
+        <v>262</v>
+      </c>
+      <c r="K44" t="s">
+        <v>263</v>
+      </c>
+      <c r="L44" t="s">
+        <v>264</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>265</v>
+      </c>
+      <c r="O44" t="s">
+        <v>139</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>266</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>267</v>
+      </c>
+      <c r="J45" t="s">
+        <v>268</v>
+      </c>
+      <c r="K45" t="s">
+        <v>269</v>
+      </c>
+      <c r="L45" t="s">
+        <v>270</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>265</v>
+      </c>
+      <c r="O45" t="s">
+        <v>67</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>271</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>272</v>
+      </c>
+      <c r="J46" t="s">
+        <v>273</v>
+      </c>
+      <c r="K46" t="s">
+        <v>274</v>
+      </c>
+      <c r="L46" t="s">
+        <v>275</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>276</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>1</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>278</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>279</v>
+      </c>
+      <c r="J47" t="s">
+        <v>280</v>
+      </c>
+      <c r="K47" t="s">
+        <v>281</v>
+      </c>
+      <c r="L47" t="s">
+        <v>282</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>283</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>284</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>285</v>
+      </c>
+      <c r="J48" t="s">
+        <v>286</v>
+      </c>
+      <c r="K48" t="s"/>
+      <c r="L48" t="s"/>
+      <c r="M48" t="n">
+        <v>2</v>
+      </c>
+      <c r="N48" t="s">
+        <v>283</v>
+      </c>
+      <c r="O48" t="s">
+        <v>139</v>
+      </c>
+      <c r="P48" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1</v>
+      </c>
+      <c r="S48" t="n">
+        <v>3</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>3</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>287</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>288</v>
+      </c>
+      <c r="J49" t="s">
+        <v>289</v>
+      </c>
+      <c r="K49" t="s">
+        <v>290</v>
+      </c>
+      <c r="L49" t="s">
+        <v>291</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>292</v>
+      </c>
+      <c r="O49" t="s">
+        <v>139</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>294</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>295</v>
+      </c>
+      <c r="J50" t="s">
+        <v>296</v>
+      </c>
+      <c r="K50" t="s"/>
+      <c r="L50" t="s"/>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>292</v>
+      </c>
+      <c r="O50" t="s">
+        <v>139</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>297</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>298</v>
+      </c>
+      <c r="J51" t="s">
+        <v>299</v>
+      </c>
+      <c r="K51" t="s"/>
+      <c r="L51" t="s"/>
+      <c r="M51" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" t="s">
+        <v>292</v>
+      </c>
+      <c r="O51" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>2</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>3</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>300</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>301</v>
+      </c>
+      <c r="J52" t="s">
+        <v>302</v>
+      </c>
+      <c r="K52" t="s"/>
+      <c r="L52" t="s"/>
+      <c r="M52" t="n">
+        <v>2</v>
+      </c>
+      <c r="N52" t="s">
+        <v>292</v>
+      </c>
+      <c r="O52" t="s">
+        <v>60</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>3</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>303</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>304</v>
+      </c>
+      <c r="J53" t="s">
+        <v>305</v>
+      </c>
+      <c r="K53" t="s">
+        <v>306</v>
+      </c>
+      <c r="L53" t="s">
+        <v>307</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>308</v>
+      </c>
+      <c r="O53" t="s">
+        <v>139</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>309</v>
+      </c>
+      <c r="X53" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>312</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>313</v>
+      </c>
+      <c r="J54" t="s">
+        <v>314</v>
+      </c>
+      <c r="K54" t="s"/>
+      <c r="L54" t="s">
+        <v>71</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>308</v>
+      </c>
+      <c r="O54" t="s">
+        <v>60</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>309</v>
+      </c>
+      <c r="X54" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>315</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>316</v>
+      </c>
+      <c r="J55" t="s">
+        <v>317</v>
+      </c>
+      <c r="K55" t="s"/>
+      <c r="L55" t="s">
+        <v>71</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>318</v>
+      </c>
+      <c r="O55" t="s">
+        <v>67</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>309</v>
+      </c>
+      <c r="X55" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>319</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>320</v>
+      </c>
+      <c r="J56" t="s">
+        <v>321</v>
+      </c>
+      <c r="K56" t="s">
+        <v>322</v>
+      </c>
+      <c r="L56" t="s">
+        <v>323</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2</v>
+      </c>
+      <c r="N56" t="s">
+        <v>324</v>
+      </c>
+      <c r="O56" t="s">
+        <v>130</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="n">
+        <v>2</v>
+      </c>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>309</v>
+      </c>
+      <c r="X56" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>326</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>327</v>
+      </c>
+      <c r="J57" t="s">
+        <v>328</v>
+      </c>
+      <c r="K57" t="s">
+        <v>329</v>
+      </c>
+      <c r="L57" t="s">
+        <v>330</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>3</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>331</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>332</v>
+      </c>
+      <c r="J58" t="s">
+        <v>333</v>
+      </c>
+      <c r="K58" t="s"/>
+      <c r="L58" t="s"/>
+      <c r="M58" t="n">
+        <v>2</v>
+      </c>
+      <c r="N58" t="s">
+        <v>334</v>
+      </c>
+      <c r="O58" t="s">
+        <v>67</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>2</v>
+      </c>
+      <c r="R58" t="n">
+        <v>2</v>
+      </c>
+      <c r="S58" t="n">
+        <v>3</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>3</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>335</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>336</v>
+      </c>
+      <c r="J59" t="s">
+        <v>337</v>
+      </c>
+      <c r="K59" t="s">
+        <v>338</v>
+      </c>
+      <c r="L59" t="s">
+        <v>339</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>340</v>
+      </c>
+      <c r="O59" t="s">
+        <v>60</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="s"/>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>341</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>342</v>
+      </c>
+      <c r="J60" t="s">
+        <v>343</v>
+      </c>
+      <c r="K60" t="s">
+        <v>344</v>
+      </c>
+      <c r="L60" t="s">
+        <v>345</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>346</v>
+      </c>
+      <c r="O60" t="s">
+        <v>67</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>347</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>348</v>
+      </c>
+      <c r="J61" t="s">
+        <v>349</v>
+      </c>
+      <c r="K61" t="s">
+        <v>350</v>
+      </c>
+      <c r="L61" t="s">
+        <v>351</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>340</v>
+      </c>
+      <c r="O61" t="s">
+        <v>67</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>352</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>353</v>
+      </c>
+      <c r="J62" t="s">
+        <v>354</v>
+      </c>
+      <c r="K62" t="s">
+        <v>355</v>
+      </c>
+      <c r="L62" t="s">
+        <v>356</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>357</v>
+      </c>
+      <c r="O62" t="s">
+        <v>67</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>358</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>359</v>
+      </c>
+      <c r="J63" t="s">
+        <v>360</v>
+      </c>
+      <c r="K63" t="s"/>
+      <c r="L63" t="s">
+        <v>71</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>346</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>361</v>
+      </c>
+      <c r="X63" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>363</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>364</v>
+      </c>
+      <c r="J64" t="s">
+        <v>365</v>
+      </c>
+      <c r="K64" t="s"/>
+      <c r="L64" t="s">
+        <v>71</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>346</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>3</v>
+      </c>
+      <c r="R64" t="n">
+        <v>2</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>3</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>361</v>
+      </c>
+      <c r="X64" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>366</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>367</v>
+      </c>
+      <c r="J65" t="s">
+        <v>368</v>
+      </c>
+      <c r="K65" t="s"/>
+      <c r="L65" t="s">
+        <v>71</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>369</v>
+      </c>
+      <c r="O65" t="s">
+        <v>67</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>370</v>
+      </c>
+      <c r="X65" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>372</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>373</v>
+      </c>
+      <c r="J66" t="s">
+        <v>374</v>
+      </c>
+      <c r="K66" t="s"/>
+      <c r="L66" t="s">
+        <v>71</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" t="s">
+        <v>369</v>
+      </c>
+      <c r="O66" t="s">
+        <v>67</v>
+      </c>
+      <c r="P66" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>1</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>2</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>361</v>
+      </c>
+      <c r="X66" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>375</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>376</v>
+      </c>
+      <c r="J67" t="s">
+        <v>377</v>
+      </c>
+      <c r="K67" t="s"/>
+      <c r="L67" t="s"/>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>378</v>
+      </c>
+      <c r="O67" t="s">
+        <v>67</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>379</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>380</v>
+      </c>
+      <c r="J68" t="s">
+        <v>381</v>
+      </c>
+      <c r="K68" t="s"/>
+      <c r="L68" t="s">
+        <v>71</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="s">
+        <v>382</v>
+      </c>
+      <c r="O68" t="s">
+        <v>67</v>
+      </c>
+      <c r="P68" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>2</v>
+      </c>
+      <c r="R68" t="n">
+        <v>2</v>
+      </c>
+      <c r="S68" t="n">
+        <v>1</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>2</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>383</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>384</v>
+      </c>
+      <c r="J69" t="s">
+        <v>385</v>
+      </c>
+      <c r="K69" t="s">
+        <v>386</v>
+      </c>
+      <c r="L69" t="s">
+        <v>387</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s"/>
+      <c r="O69" t="s"/>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="n">
+        <v>3</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>3</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>370</v>
+      </c>
+      <c r="X69" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>389</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>390</v>
+      </c>
+      <c r="J70" t="s">
+        <v>391</v>
+      </c>
+      <c r="K70" t="s"/>
+      <c r="L70" t="s">
+        <v>71</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>392</v>
+      </c>
+      <c r="O70" t="s">
+        <v>130</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>393</v>
+      </c>
+      <c r="X70" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>395</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>396</v>
+      </c>
+      <c r="J71" t="s">
+        <v>397</v>
+      </c>
+      <c r="K71" t="s">
+        <v>398</v>
+      </c>
+      <c r="L71" t="s">
+        <v>399</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>392</v>
+      </c>
+      <c r="O71" t="s">
+        <v>60</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>393</v>
+      </c>
+      <c r="X71" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>401</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>402</v>
+      </c>
+      <c r="J72" t="s">
+        <v>403</v>
+      </c>
+      <c r="K72" t="s">
+        <v>404</v>
+      </c>
+      <c r="L72" t="s">
+        <v>405</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>392</v>
+      </c>
+      <c r="O72" t="s">
+        <v>139</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>393</v>
+      </c>
+      <c r="X72" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>407</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>408</v>
+      </c>
+      <c r="J73" t="s">
+        <v>409</v>
+      </c>
+      <c r="K73" t="s">
+        <v>410</v>
+      </c>
+      <c r="L73" t="s">
+        <v>411</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>412</v>
+      </c>
+      <c r="O73" t="s">
+        <v>67</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>3</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>413</v>
+      </c>
+      <c r="X73" t="s">
+        <v>414</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>416</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>417</v>
+      </c>
+      <c r="J74" t="s">
+        <v>418</v>
+      </c>
+      <c r="K74" t="s">
+        <v>419</v>
+      </c>
+      <c r="L74" t="s">
+        <v>420</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>421</v>
+      </c>
+      <c r="O74" t="s">
+        <v>60</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>422</v>
+      </c>
+      <c r="X74" t="s">
+        <v>423</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>425</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>426</v>
+      </c>
+      <c r="J75" t="s">
+        <v>427</v>
+      </c>
+      <c r="K75" t="s"/>
+      <c r="L75" t="s"/>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>428</v>
+      </c>
+      <c r="O75" t="s">
+        <v>60</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>429</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>430</v>
+      </c>
+      <c r="J76" t="s">
+        <v>431</v>
+      </c>
+      <c r="K76" t="s">
+        <v>432</v>
+      </c>
+      <c r="L76" t="s">
+        <v>433</v>
+      </c>
+      <c r="M76" t="n">
+        <v>2</v>
+      </c>
+      <c r="N76" t="s">
+        <v>434</v>
+      </c>
+      <c r="O76" t="s">
+        <v>130</v>
+      </c>
+      <c r="P76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>2</v>
+      </c>
+      <c r="R76" t="n">
+        <v>2</v>
+      </c>
+      <c r="S76" t="n">
+        <v>2</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>3</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>435</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>436</v>
+      </c>
+      <c r="J77" t="s">
+        <v>437</v>
+      </c>
+      <c r="K77" t="s">
+        <v>438</v>
+      </c>
+      <c r="L77" t="s">
+        <v>439</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="s">
+        <v>440</v>
+      </c>
+      <c r="O77" t="s">
+        <v>60</v>
+      </c>
+      <c r="P77" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>3</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>3</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>2</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>442</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>443</v>
+      </c>
+      <c r="J78" t="s">
+        <v>444</v>
+      </c>
+      <c r="K78" t="s">
+        <v>445</v>
+      </c>
+      <c r="L78" t="s">
+        <v>446</v>
+      </c>
+      <c r="M78" t="n">
+        <v>3</v>
+      </c>
+      <c r="N78" t="s">
+        <v>447</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>3</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>3</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="s"/>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>3945</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>448</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>449</v>
+      </c>
+      <c r="J79" t="s">
+        <v>450</v>
+      </c>
+      <c r="K79" t="s">
+        <v>451</v>
+      </c>
+      <c r="L79" t="s">
+        <v>452</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>453</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>452</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_731.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_731.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="528">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Planet Paradise G</t>
+  </si>
+  <si>
     <t>07/10/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>NebraskaSKiP</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r554082265-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>stephaniegF8605ND</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r553455791-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -222,6 +231,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>melodyn104</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r542707473-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -240,6 +252,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>BeaverFan1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r539980744-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -249,6 +264,9 @@
     <t>11/10/2017</t>
   </si>
   <si>
+    <t>matthewaD5460JL</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r535995165-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -261,6 +279,9 @@
     <t>October 2017</t>
   </si>
   <si>
+    <t>Juan L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r513235337-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -279,6 +300,9 @@
     <t>August 2017</t>
   </si>
   <si>
+    <t>Slovebunny</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r513003801-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -288,6 +312,9 @@
     <t>08/14/2017</t>
   </si>
   <si>
+    <t>concernedparent2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r503237010-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -309,6 +336,9 @@
     <t>We are a simple pleasing family. But safety is #1 with us. The office staff the husband, wife, and other worker is rude and doesn't care about the guest!! Only $! My child received 3 degree burns from walking on the upstairs waking path because they used left over tar from the parking lot to make the look more attracting. This has happened several times says the staff and the hotel has lawsuits over It. All we ask for was extra pillows being that we had to problem our child up to prevent pain and swelling of the feet, we needed pillows to rest. The two days that we had to stay in the room so that our kid could heal enough to ease the pain. We notified the front desk and they only treated us horrible. No apologies or anything. The manager refused to call or come talk to us. Everything good about a stay goes out the window when your child's safety is at risk. This hote should be made to fix the walking path or have signs posted!!! My child has to live with the after effects of 3rd degree burns. 2 days stopped vacation because of the burns, Having to be in a wheelchair the rest of the trip, and now seeking medical attention at home. And just for the record. We did not receive reimbursement on our stay so that we could cover medical visit,...We are a simple pleasing family. But safety is #1 with us. The office staff the husband, wife, and other worker is rude and doesn't care about the guest!! Only $! My child received 3 degree burns from walking on the upstairs waking path because they used left over tar from the parking lot to make the look more attracting. This has happened several times says the staff and the hotel has lawsuits over It. All we ask for was extra pillows being that we had to problem our child up to prevent pain and swelling of the feet, we needed pillows to rest. The two days that we had to stay in the room so that our kid could heal enough to ease the pain. We notified the front desk and they only treated us horrible. No apologies or anything. The manager refused to call or come talk to us. Everything good about a stay goes out the window when your child's safety is at risk. This hote should be made to fix the walking path or have signs posted!!! My child has to live with the after effects of 3rd degree burns. 2 days stopped vacation because of the burns, Having to be in a wheelchair the rest of the trip, and now seeking medical attention at home. And just for the record. We did not receive reimbursement on our stay so that we could cover medical visit, medicines, or supplies. The staff at the front office did not care AT ALL!!!! I hope the hotel chain does some management change here for the future guest.More</t>
   </si>
   <si>
+    <t>kalenal2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r498007845-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -321,6 +351,9 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>855laylac</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r497615168-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -336,6 +369,9 @@
     <t xml:space="preserve">The hotel was clean. Had everything we needed. It needs a little updating on the rooms. The bed was good, lots of pillows and king size bed. </t>
   </si>
   <si>
+    <t>xxx656</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r496880271-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -345,6 +381,9 @@
     <t>06/28/2017</t>
   </si>
   <si>
+    <t>M6500LDclaudiaf</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r482749905-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -363,6 +402,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>George P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r482482971-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -381,6 +423,9 @@
     <t>May 2017</t>
   </si>
   <si>
+    <t>891paulc2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r480950192-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -399,6 +444,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>850mariaelenal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r479527887-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -411,6 +459,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>mmoffitt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r476840558-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -420,6 +471,9 @@
     <t>04/18/2017</t>
   </si>
   <si>
+    <t>Gary53546</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r474851917-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -438,6 +492,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Michelle B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r469144631-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -453,6 +510,9 @@
     <t xml:space="preserve">This was a weeklong stay. It was quiet and breakfast was sufficient. The location was somewhat sketchy as were the accommodations. If you just need a place to sleep and free breakfast - it's doable. </t>
   </si>
   <si>
+    <t>victorh943</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r466774490-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -465,6 +525,9 @@
     <t>February 2017</t>
   </si>
   <si>
+    <t>adelao741</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r464705101-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -474,6 +537,9 @@
     <t>03/05/2017</t>
   </si>
   <si>
+    <t>jolinal592</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r458435627-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -483,6 +549,9 @@
     <t>02/10/2017</t>
   </si>
   <si>
+    <t>502susann</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r456925196-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -501,6 +570,9 @@
     <t>January 2017</t>
   </si>
   <si>
+    <t>constancee744</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r456207262-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -516,6 +588,9 @@
     <t xml:space="preserve">I was very hesitate on booking this spot because of statements made by other co-partners.  I went ahead made them and their were very surprise on the outcome.  They were VERY HAPPY on the outcome of the rooms.  Staff very pleasant and the rooms very clean.  We definitely will rebook in the future.   Thanks to the Staff.  </t>
   </si>
   <si>
+    <t>G2854VEedwardg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r447639750-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -528,6 +603,9 @@
     <t>December 2016</t>
   </si>
   <si>
+    <t>189kayw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r441660184-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -540,6 +618,9 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>Alan D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r438807037-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -555,6 +636,9 @@
     <t>Responded November 28, 2016</t>
   </si>
   <si>
+    <t>edwardk486</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r431856664-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -582,6 +666,9 @@
     <t>your stay with Super 8 was great comfortable bed and lots of channels too watch on the tv and room was very clean. Hats off to the Super 8 crew.More</t>
   </si>
   <si>
+    <t>I2305OGkarenj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r429871430-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -600,6 +687,9 @@
     <t>10/11/2016</t>
   </si>
   <si>
+    <t>tee_cisco</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r416255203-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -627,6 +717,9 @@
     <t>Customer service wasn't too good, Vanessa was great but the others (owners) were terrible. They need to value each customer and smile. More</t>
   </si>
   <si>
+    <t>cathycA1680TU</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r396393268-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -648,6 +741,9 @@
     <t>We were here for the night due to a very early baseball tourney. We would stay here again. My son left behind one of his pairs of baseball pants , however we didnt realize it till the next day. We called the manager , he promptly called us back when he located the pants, picked them up 2 days later.More</t>
   </si>
   <si>
+    <t>lopeze301</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r396310268-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -681,6 +777,9 @@
     <t>The only thing was that when checking in I wasn't allow to have my discount with either the military discount or with the group rate with who I was with.  They stated that the only way to get these discounts is when I reserve on the phone or in person.  I have never heard of this reason before and was disappointed in this way of business.  It states online various discounts so why is this.  Other than this the service was above excellent,More</t>
   </si>
   <si>
+    <t>Timothy W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r357595542-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -693,6 +792,9 @@
     <t xml:space="preserve">Although our reservation wasn't made right, the clerk did all he could to help us. We were supposed to get a 2 bed room, but the person that made the reservation on booked a 1 bed. Clerk said there were no more 2 bed rooms available, but he could at least get us a joining room and give us a discount. knowing that the hotel was heavily booked for the night, I feel he did all he could for us. We stay there several times a year and he even recognized us. </t>
   </si>
   <si>
+    <t>Laurie B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r350664272-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -705,6 +807,9 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>justomajoan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r328266664-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -726,6 +831,9 @@
     <t>11-21-15, I have been staying in the Super 8 Azusa since Oct.5th, with a few exceptions,because we were only allowed to stay 28 days.We tried the Hotel 6 for 1 night, it was clean, the beds were somewhat a little soft and that was the only thing I liked about it.The Super 8 Azusa the people are very nice, and the maids very accommodating,they will do just about anything to help you,and make your stay comfortable, in fact once I couldn't carry my bags upstairs, (we came back after 2 days stays at other hotels) because I have a bad back. I asked 1 of them to help me, and she did it with ease, and  always with a smile.The rooms aren't as updated as the one we stayed at in Westminster, and that 1 was beautiful but they were pretty much booked by the time we called and we got a handicapped room, which is ideal for anyone who's handicapped.Most everything was upgraded and very nice, 4 stories high, and like mini suites.So before we came back to the 1 in Azusa, because my roomy needed a TV with more than 2 stations like many hotels have,so that is why we came back, and for me the beds in Azusa are too hard, I feel like I am sleeping on the box springs. I wake up every morning in extreme pain but my roomy has to have his TV....11-21-15, I have been staying in the Super 8 Azusa since Oct.5th, with a few exceptions,because we were only allowed to stay 28 days.We tried the Hotel 6 for 1 night, it was clean, the beds were somewhat a little soft and that was the only thing I liked about it.The Super 8 Azusa the people are very nice, and the maids very accommodating,they will do just about anything to help you,and make your stay comfortable, in fact once I couldn't carry my bags upstairs, (we came back after 2 days stays at other hotels) because I have a bad back. I asked 1 of them to help me, and she did it with ease, and  always with a smile.The rooms aren't as updated as the one we stayed at in Westminster, and that 1 was beautiful but they were pretty much booked by the time we called and we got a handicapped room, which is ideal for anyone who's handicapped.Most everything was upgraded and very nice, 4 stories high, and like mini suites.So before we came back to the 1 in Azusa, because my roomy needed a TV with more than 2 stations like many hotels have,so that is why we came back, and for me the beds in Azusa are too hard, I feel like I am sleeping on the box springs. I wake up every morning in extreme pain but my roomy has to have his TV. We are homeless, so you may think that beggars can't be choosy but this 1 can (me) the Super 8 in Westminster except for being a room for the handicapped was really, really nice, and, especially for the money. You'd be wise to go on line and sign up to accumulate points, so if you stay for long periods of time or move around a lot and stay at Super 8's you can rack up points fast and get a free night stay, which we found out about after we had been there for some time. The manager himself told us that we should go on line and find out how many points we had, and check to see if we had enough for a free 1 night stay. Now who does that? He did, at the Super 8 in Azusa, which he was already giving us an amazing discount. So glad I joined their site when I did just wish I'd have found out sooner. When we came back we tried a downstairs but for some reason it was so different on the ground floor which is more practical but upstairs just seems better,stairs or no stairs,or elevator like the 1 in Westminster. We came back and for how long I don't know. Thinking that I will go to 1 of the great department stores and buy a foam bed cover, though we are sleeping on a king size bed I will purchase 1 for the queen size I have in storage.Oh another thing, I had a friend that paid for us to stay at a Marriott hotel which was a suite and had sleep # beds,it was really nice and totally comfortable bed. I am so grateful to him for giving us a place to stay,and start our journey of homelessness.I think that maybe we could have stayed somewhere else cheap for 2 nights for the price he payed for the 1 night at the Marriott.Thank you Candy Randy.More</t>
   </si>
   <si>
+    <t>517leon</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r321445586-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -741,6 +849,9 @@
     <t>Responded November 12, 2015</t>
   </si>
   <si>
+    <t>vidri0s</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r320108553-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -759,6 +870,9 @@
     <t>Place was clean and upgraded to contemporary design. I had room #223, although spacious, I could hear people next door, and that's about my only reason why I put average. Breakfast was available by 6 :)More</t>
   </si>
   <si>
+    <t>250chalineep</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r299294402-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -771,6 +885,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>Katie A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r298454440-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -789,6 +906,9 @@
     <t>I booked this stay as a part of award travel through my Skymiles card. The location is in a seedy part of town, but it isn’t too bad if you aren’t traveling alone. There is no elevator at this property and we were given an upstairs room. I completely understand why because of limited availability; however, it was a bit of a hassle as I have cerebral palsy. I don’t hold it against the motel though. The parking situation is a bit odd in that there is some parking in the front and the rest is located behind the motel; we did not feel comfortable parking the car back there. The room smelled heavily of pot when we entered and no one felt okay about walking around the room without shoes. The bedding was clean, but old and worn. The pillows were flat and the mattress hard and a bit pokey. The channel selection was fairly good and the room had a fridge, microwave, and coffee pot. Be warned, the coffee is awful. The bathroom was small, the water pressure in the shower was minimal at best, and the towels had cigarette burns in them. The wifi was free and was okay considering it was free. They offered a free breakfast as well, but we did not partake, so I’m sorry I can’t help you there. As I mentioned previously, there is no elevator, but there are 2 sets of...I booked this stay as a part of award travel through my Skymiles card. The location is in a seedy part of town, but it isn’t too bad if you aren’t traveling alone. There is no elevator at this property and we were given an upstairs room. I completely understand why because of limited availability; however, it was a bit of a hassle as I have cerebral palsy. I don’t hold it against the motel though. The parking situation is a bit odd in that there is some parking in the front and the rest is located behind the motel; we did not feel comfortable parking the car back there. The room smelled heavily of pot when we entered and no one felt okay about walking around the room without shoes. The bedding was clean, but old and worn. The pillows were flat and the mattress hard and a bit pokey. The channel selection was fairly good and the room had a fridge, microwave, and coffee pot. Be warned, the coffee is awful. The bathroom was small, the water pressure in the shower was minimal at best, and the towels had cigarette burns in them. The wifi was free and was okay considering it was free. They offered a free breakfast as well, but we did not partake, so I’m sorry I can’t help you there. As I mentioned previously, there is no elevator, but there are 2 sets of stairs. One set leads from flat ground right onto the staircase, the other set has a rather high step up from the pavement before leading up to the staircase. This staircase is located closest to the outdoor spa, so it is pretty consistently wet. The really dangerous thing about the big step is that it is not clearly marked furthermore, it is painted the same color as the pavement below. Due to this lack of visibility, I missed the step entirely and landed on my stomach on the pavement. I hurt my ribs and knees and with my husband’s help made it to the car. I sent him into the office to inform the employee of what had just happened. He did not seem all that concerned and simply explained why we didn’t get a downstairs room. I was not asked to fill out any kind of paperwork and I seriously doubt they will change anything.More</t>
   </si>
   <si>
+    <t>388nayelir</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r297119063-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -798,6 +918,9 @@
     <t>08/09/2015</t>
   </si>
   <si>
+    <t>Andre V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r291873327-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -816,6 +939,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>lulubruin08</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r288692606-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -831,6 +957,9 @@
     <t>I have been to this location often.   I noticed new window curtains, carpet and bedspreads.   Excellent breakfast where you can make waffles, plus they have fresh fruit, cold cereal, juices and rolls.   Staff always helpful and welcoming.   Ideal location off freeway on main street close to many food places such as In 'n Out.   I feel very comfortable there.   My refrigerator didn't work and I was immediately moved to a new room.</t>
   </si>
   <si>
+    <t>nn1880</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r278889838-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -852,6 +981,9 @@
     <t>If I could give this place no stars, I would! They gave me a room with an a.c. that barely work and when I asked to switch rooms, the young punk at the front desk tried to play games and wanted to argue with me. He claimed he saw me in the room for 2 HRS with was a lie. I turned the a.c. down to the coldest temp and walked up the street to eat hoping to come back to a cool room. I came back later to a room that was as warm as it was when I left. SMH @  this establishment and the young punk who checked me in. Never again will I stay here as this I'd one of the worst super 8 stays for me!More</t>
   </si>
   <si>
+    <t>basemaz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r275115695-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -870,6 +1002,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>M L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r272860950-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -879,6 +1014,9 @@
     <t>05/18/2015</t>
   </si>
   <si>
+    <t>d8889</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r271408352-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -900,6 +1038,9 @@
     <t>I spent two nights at the Super 8 Asuza during the month of April 2015 and I feel like saying that this is one of the best Super 8 I've ever stayed in. At the ckeck in I was impressed by the kindness and professionalism of both the owner/manager and of the young employee on duty . The motel exterior was perfectly clean and renovated, offering a very positive general first impression. The real surprise , however, was given by the room. Both times I was given a ground floor room and in both cases it was ample, impeccably clean, equipped with microwave, coffe maker , fridge, iron and iron board and a valid wi fi connection. The bed was definitely comfortable and hot water ready available. Guests in the morning are offered a valid continental breakfast and, despite I did not make use of it, they can enjoy a small relaxing pool. The location is convenient, just outside an exit of  highway 210 and right on the 39. Considering the prices of accomodations in the area Super 8 Asuza offers the best deal in a radius of several miles, probably the best alternative to the overpriced Pasadena motels. Would I stay at this Super 8 once again? Yes, without any doubt, from now on it'll be my base when in the area. Will I recommend it a friend? Yes, without any doubt. Last but not least  it's been the...I spent two nights at the Super 8 Asuza during the month of April 2015 and I feel like saying that this is one of the best Super 8 I've ever stayed in. At the ckeck in I was impressed by the kindness and professionalism of both the owner/manager and of the young employee on duty . The motel exterior was perfectly clean and renovated, offering a very positive general first impression. The real surprise , however, was given by the room. Both times I was given a ground floor room and in both cases it was ample, impeccably clean, equipped with microwave, coffe maker , fridge, iron and iron board and a valid wi fi connection. The bed was definitely comfortable and hot water ready available. Guests in the morning are offered a valid continental breakfast and, despite I did not make use of it, they can enjoy a small relaxing pool. The location is convenient, just outside an exit of  highway 210 and right on the 39. Considering the prices of accomodations in the area Super 8 Asuza offers the best deal in a radius of several miles, probably the best alternative to the overpriced Pasadena motels. Would I stay at this Super 8 once again? Yes, without any doubt, from now on it'll be my base when in the area. Will I recommend it a friend? Yes, without any doubt. Last but not least  it's been the only Wyndham motel I was given without a later claim my Wyndham rewards points. This also proves the seriousness of the staff.More</t>
   </si>
   <si>
+    <t>Rita B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r267520484-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -909,6 +1050,9 @@
     <t>04/23/2015</t>
   </si>
   <si>
+    <t>lorenzo C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r266943891-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -918,6 +1062,9 @@
     <t>04/20/2015</t>
   </si>
   <si>
+    <t>Melinda F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r265732219-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -927,6 +1074,9 @@
     <t>04/14/2015</t>
   </si>
   <si>
+    <t>NevadaW0lf</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r256420541-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -954,6 +1104,9 @@
     <t>Wasn't sure if there would be a room available on a holiday weekend, but so a quick Google search brought me here. The directions were a bit goofy as I didn't know that San Gabriel turned so my GPS led me astray.Found my way eventually and was greeted politely by a young lady who was still learning the check in system. She accommodated my request for a ground floor room with parking out front so my bike could be in view after ensuring that I would be alright with a smoking room.The room was spacious and clean, with a comfortable bed, large TV, and small fridge. There was several ash trays around and a faint smell of smoke, but nothing overpowering and certainly not bothersome to me (thank you Nevada casinos...). I was able to find ample power plugs for my various gizmos and a short walk across the street had me fed. Plenty of nearby gas stations got both my and my motorcycle's tanks filled in the morning.Only small critique was a neighboring room left some water running for a long time and the noise was distinctive. Shutting the bathroom door toned it down a bit, but I could still hear it when I went to bed.Pleasant place to stay and perfectly located for a quick ride up to the mountains for some fun on the twisty roads.More</t>
   </si>
   <si>
+    <t>Jpdreamerz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r255362441-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -975,6 +1128,9 @@
     <t>December 2014</t>
   </si>
   <si>
+    <t>John K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r235449552-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -996,6 +1152,9 @@
     <t>When we first arrived, there was little parking available.  We were told there was additional parking in back, out of view from our room.  The room was a good size.  The furniture was dated, the sheets, blankets, and carpet all showed a lot of wear.  The room was clean. There were also 2 televisions in the room, for some reason.  The motel is located on a very busy street and we were awaken several times by emergency vehicles with sirens blaring speeding past.  We travel to this area several times per year and won't be staying here again.More</t>
   </si>
   <si>
+    <t>TiffianyLaToi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r230201466-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -1011,6 +1170,9 @@
     <t>THIS Place comes equipped with a lot of stuff hands on, mini coffee machines in room, iron boards, hair dryers...the breakfast is awesome...the owner seems very nice, only rude one is the Indian lady at night...great channels and very accommodating.</t>
   </si>
   <si>
+    <t>L H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r229316290-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -1023,6 +1185,9 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>Lukas B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r216895761-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -1059,6 +1224,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>Jose G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r216285374-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -1074,6 +1242,9 @@
     <t>After arriving at this property, we found we were in the second floor; I called the office to request a transfer due to my disability and was accommodated. Nick in the office was very efficient in all our requests.</t>
   </si>
   <si>
+    <t>Lupita D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r204831066-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -1092,6 +1263,9 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>Fernando D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r202906748-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -1107,6 +1281,9 @@
     <t>Responded April 29, 2014</t>
   </si>
   <si>
+    <t>LVOldTimer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r200986948-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -1116,6 +1293,9 @@
     <t>04/13/2014</t>
   </si>
   <si>
+    <t>Mark N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r189561541-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -1134,6 +1314,9 @@
     <t>Responded March 12, 2014</t>
   </si>
   <si>
+    <t>Daniel F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r188779211-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -1143,6 +1326,9 @@
     <t>12/28/2013</t>
   </si>
   <si>
+    <t>Edward M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r182135100-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -1155,6 +1341,9 @@
     <t>October 2013</t>
   </si>
   <si>
+    <t>Erin V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r174538661-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -1167,6 +1356,9 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>DPMeadows</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r164250199-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -1185,6 +1377,9 @@
     <t>The room was cheap and surprisingly clean. I only stayed two nights and felt i got my money's worth. The rooms seemed recently upgraded or remodeled. Close to downtown and restaurants and shopping.The breakfast wasn't all that bad eitherMore</t>
   </si>
   <si>
+    <t>Couture M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r159469463-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -1203,6 +1398,9 @@
     <t>Responded May 8, 2013</t>
   </si>
   <si>
+    <t>117Nsuper8</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r158537718-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -1221,6 +1419,9 @@
     <t>I stayed every weekend. I liked to room service .Front desk was very supportive and polite.  Convenient  location to 210 free way and APU university . I had a pleasant time here with my family every weekend. The room had a fridge,micro,coffee maker and hair dryer.we did advantage of continental breakfast.they had fresh waffles. Other than that, great value for the money. I would fully recommended this motel.More</t>
   </si>
   <si>
+    <t>Peter S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r158425166-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -1239,6 +1440,9 @@
     <t>I liked the service so much and the hospitality . Nick in the front disk was very polite and  friendlyMore</t>
   </si>
   <si>
+    <t>APUparent</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r153977363-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -1266,6 +1470,9 @@
     <t>We have been staying at the Super 8 Azusa over the past four years while our daughter attended Azusa Pacific University. It's not on the APU parent motel list, but we're not sure why not.  It is extremely convenient to the school and to the freeway, has very well-kept interiors and bathrooms, and is extremely clean.  A (very) little road noise, but hey -- it's a deal at about one half the price of the (much further) hotels in Arcadia and Pasadena-- and you can usually reserve a room here when everything else is booked solid. No, it's not the Marriott-- but when you're going to APU to visit your student, (and already spending a lot of money on travel, tuition, etc.), it's great.More</t>
   </si>
   <si>
+    <t>linrabCanada</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r144615457-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -1293,6 +1500,9 @@
     <t>We had tickets to the Breeder's Cup 2013 in Sta. Anita and the closest accommodation we could get is this motel. We were pleasantly surprised that it was clean and comfortable.  Although wedid not take advantage much of their breakfast as we left very early, it seemed that they hada fairly decent selection of pastry, fresh waffles, fruits tea and coffee.  The room was equippedwith a small microwave and a bar fridge which came in very handy for us as my husband isdiabetic.  The only negative thing we found was that they are still using bed covers withcigarettte holes in them.  Apart from this, we had no major issues with the motel. For short stays,we would consider staying there again.More</t>
   </si>
   <si>
+    <t>YOLANDA B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r142984125-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -1305,6 +1515,9 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>Bill J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r125308371-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -1321,6 +1534,9 @@
   </si>
   <si>
     <t>February 2012</t>
+  </si>
+  <si>
+    <t>RetiredRidgecrest_CA</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r18210732-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
@@ -1358,6 +1574,9 @@
 Irregular bathroom tile and a 1” gap between the room door to the outside and the floor caused cool air to leave the room and dust, noise, cigarette smoke and bugs to enter. It was necessary to place a folded bath towel on the floor to cover the wide gap. The door...We are a senior couple in our 70’s staying at this motel in room115 prior to and after a visit to City of Hope Medical Facility which is just 5 freeway miles distant. Reservations for a ground floor king bed non-smoking room were made through the Super 8 website at a cost of $61.00 total per night without a problem.Although there is no indication that this is a handicapped room I presume it to be as there are two so designated parking spots in front of it. It is not however outfitted for handicapped nor marked as such.The motel, located on and very close to a busy and noisy street is old and obviously remodeled “on the cheap”.We waited until 2:30pm for our 2:00pm room to be ready and found it very small but clean and free of any lingering odor.All lighting and appliances (including the fridge and microwave) worked well although there was a slight problem regulating the A/C.The very small bathroom with toilet and tub/shower are apart from the vanity top, sink and mirror.Water pressure and drainage were very good.Irregular bathroom tile and a 1” gap between the room door to the outside and the floor caused cool air to leave the room and dust, noise, cigarette smoke and bugs to enter. It was necessary to place a folded bath towel on the floor to cover the wide gap. The door to room 116 was noted to be the same. The bed was fairly comfortable but street noise (apparently there is no car stereo amplifier law in Azusa) and squeaky and slamming motel doors make it difficult to sleep.There is no desk person at night and on the last day of our stay a person from the living quarters in back had to be awakened at 6:15am to open for the 6:00am claimed breakfast. On neither day was there a USA Today newspaper as promised. Breakfast was meager with an offering of two cold cereals; packaged sweet rolls; coffee; milk and imitation orange juice which can be eaten in the tiny lobby at the table with three chairs.There is Internet high speed access but it requires you to obtain a motel identifier code, username and password at the front desk to get on-line.Check-out is without problem as your billing is done at check-in.Easy freeway access either East or West on the 210 from this location.We might stay here again, if necessary, but will check out the across the street Rodeway Inn and the Best Value Inn down the block.More</t>
   </si>
   <si>
+    <t>Angela L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r15816359-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
   </si>
   <si>
@@ -1374,6 +1593,9 @@
   </si>
   <si>
     <t>May 2008</t>
+  </si>
+  <si>
+    <t>cammievb</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29125-d530855-r8402682-Super_8_by_Wyndham_Azusa-Azusa_California.html</t>
@@ -1896,43 +2118,47 @@
       <c r="A2" t="n">
         <v>3945</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1946,50 +2172,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>3945</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="n">
         <v>4</v>
@@ -2013,50 +2243,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>3945</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P4" t="n">
         <v>4</v>
@@ -2080,48 +2314,52 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>3945</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P5" t="n">
         <v>2</v>
@@ -2145,35 +2383,39 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>3945</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -2181,10 +2423,10 @@
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
@@ -2205,36 +2447,37 @@
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
-      <c r="Y6" t="s"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>3945</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="J7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -2242,10 +2485,10 @@
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -2266,51 +2509,52 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
-      <c r="Y7" t="s"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>3945</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>87</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J8" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="L8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="O8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P8" t="n">
         <v>2</v>
@@ -2334,35 +2578,39 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>3945</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>94</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="J9" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -2370,10 +2618,10 @@
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="O9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P9" t="n">
         <v>4</v>
@@ -2394,51 +2642,52 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
-      <c r="Y9" t="s"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>3945</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>98</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="J10" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="K10" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="L10" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="O10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P10" t="n">
         <v>1</v>
@@ -2462,48 +2711,52 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>3945</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>106</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="J11" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="n">
         <v>2</v>
@@ -2527,50 +2780,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>3945</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>111</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="J12" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="K12" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="L12" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="O12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P12" t="n">
         <v>3</v>
@@ -2594,35 +2851,39 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>3945</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>117</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="J13" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s"/>
@@ -2630,10 +2891,10 @@
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -2654,51 +2915,52 @@
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
-      <c r="Y13" t="s"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>3945</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>121</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="J14" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="K14" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="L14" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="O14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P14" t="n">
         <v>3</v>
@@ -2722,50 +2984,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>3945</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>128</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="J15" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="K15" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="L15" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="O15" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2783,50 +3049,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>3945</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>135</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="J16" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="K16" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="L16" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -2850,48 +3120,52 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>3945</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>142</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="J17" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="K17" t="s"/>
       <c r="L17" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="O17" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="P17" t="n">
         <v>2</v>
@@ -2915,35 +3189,39 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>3945</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>147</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="J18" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="K18" t="s"/>
       <c r="L18" t="s"/>
@@ -2951,10 +3229,10 @@
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="O18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P18" t="n">
         <v>3</v>
@@ -2975,51 +3253,52 @@
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
-      <c r="Y18" t="s"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>3945</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>151</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="J19" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="K19" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="L19" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="O19" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3039,50 +3318,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>3945</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>158</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="J20" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="K20" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="L20" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="O20" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="P20" t="n">
         <v>4</v>
@@ -3106,35 +3389,39 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>3945</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>164</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="J21" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="K21" t="s"/>
       <c r="L21" t="s"/>
@@ -3142,10 +3429,10 @@
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="n">
         <v>4</v>
@@ -3166,36 +3453,37 @@
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
-      <c r="Y21" t="s"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>3945</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>169</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="J22" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="K22" t="s"/>
       <c r="L22" t="s"/>
@@ -3203,10 +3491,10 @@
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="O22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P22" t="n">
         <v>4</v>
@@ -3227,36 +3515,37 @@
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
-      <c r="Y22" t="s"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>3945</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>173</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="J23" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="K23" t="s"/>
       <c r="L23" t="s"/>
@@ -3264,10 +3553,10 @@
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="O23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -3288,51 +3577,52 @@
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
-      <c r="Y23" t="s"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>3945</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>177</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="J24" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="K24" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="L24" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="n">
         <v>3</v>
@@ -3356,50 +3646,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>3945</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>184</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="J25" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="K25" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="L25" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -3423,35 +3717,39 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>3945</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>190</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="J26" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="K26" t="s"/>
       <c r="L26" t="s"/>
@@ -3459,10 +3757,10 @@
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="O26" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P26" t="n">
         <v>4</v>
@@ -3483,36 +3781,37 @@
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
-      <c r="Y26" t="s"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>3945</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>195</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="J27" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="K27" t="s"/>
       <c r="L27" t="s"/>
@@ -3520,10 +3819,10 @@
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="n">
         <v>3</v>
@@ -3544,49 +3843,50 @@
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
-      <c r="Y27" t="s"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>3945</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>200</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="J28" t="s">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="K28" t="s"/>
       <c r="L28" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M28" t="n">
         <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="n">
         <v>2</v>
@@ -3608,56 +3908,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="X28" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="Y28" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>3945</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>206</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="J29" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="K29" t="s">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="L29" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -3679,41 +3983,45 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="X29" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="Y29" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>3945</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>216</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>189</v>
+        <v>218</v>
       </c>
       <c r="J30" t="s">
-        <v>190</v>
+        <v>219</v>
       </c>
       <c r="K30" t="s"/>
       <c r="L30" t="s"/>
@@ -3721,10 +4029,10 @@
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="O30" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="P30" t="n">
         <v>3</v>
@@ -3745,36 +4053,37 @@
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
-      <c r="Y30" t="s"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>3945</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>195</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>192</v>
+        <v>221</v>
       </c>
       <c r="J31" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="K31" t="s"/>
       <c r="L31" t="s"/>
@@ -3782,10 +4091,10 @@
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="n">
         <v>4</v>
@@ -3806,51 +4115,52 @@
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
-      <c r="Y31" t="s"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>3945</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>223</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="J32" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="K32" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="L32" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="O32" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P32" t="n">
         <v>3</v>
@@ -3872,56 +4182,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="X32" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="Y32" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>3945</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>233</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="J33" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="K33" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="L33" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="O33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -3943,54 +4257,58 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="X33" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="Y33" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>3945</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>241</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="J34" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="K34" t="s"/>
       <c r="L34" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M34" t="n">
         <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="n">
         <v>2</v>
@@ -4012,56 +4330,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="X34" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="Y34" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>3945</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>184</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="J35" t="s">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="K35" t="s">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="L35" t="s">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="O35" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -4083,56 +4405,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="X35" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="Y35" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>3945</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>253</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="J36" t="s">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="K36" t="s">
-        <v>223</v>
+        <v>256</v>
       </c>
       <c r="L36" t="s">
-        <v>224</v>
+        <v>257</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -4156,48 +4482,52 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>224</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>3945</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>258</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>225</v>
+        <v>259</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>226</v>
+        <v>260</v>
       </c>
       <c r="J37" t="s">
-        <v>227</v>
+        <v>261</v>
       </c>
       <c r="K37" t="s"/>
       <c r="L37" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>228</v>
+        <v>262</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="n">
         <v>4</v>
@@ -4219,56 +4549,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="X37" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="Y37" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>3945</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>263</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>230</v>
+        <v>265</v>
       </c>
       <c r="J38" t="s">
-        <v>231</v>
+        <v>266</v>
       </c>
       <c r="K38" t="s">
-        <v>232</v>
+        <v>267</v>
       </c>
       <c r="L38" t="s">
-        <v>233</v>
+        <v>268</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>234</v>
+        <v>269</v>
       </c>
       <c r="O38" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4284,54 +4618,58 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="X38" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="Y38" t="s">
-        <v>235</v>
+        <v>270</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>3945</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>271</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>236</v>
+        <v>272</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c r="J39" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="K39" t="s"/>
       <c r="L39" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>234</v>
+        <v>269</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="n">
         <v>3</v>
@@ -4353,56 +4691,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="X39" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="Y39" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>3945</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>277</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>241</v>
+        <v>278</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>242</v>
+        <v>279</v>
       </c>
       <c r="J40" t="s">
-        <v>243</v>
+        <v>280</v>
       </c>
       <c r="K40" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="L40" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="M40" t="n">
         <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>234</v>
+        <v>269</v>
       </c>
       <c r="O40" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4424,41 +4766,45 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="X40" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="Y40" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>3945</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>284</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>247</v>
+        <v>285</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="J41" t="s">
-        <v>249</v>
+        <v>287</v>
       </c>
       <c r="K41" t="s"/>
       <c r="L41" t="s"/>
@@ -4466,10 +4812,10 @@
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>250</v>
+        <v>288</v>
       </c>
       <c r="O41" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P41" t="n">
         <v>4</v>
@@ -4490,51 +4836,52 @@
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
-      <c r="Y41" t="s"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>3945</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>289</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>251</v>
+        <v>290</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>252</v>
+        <v>291</v>
       </c>
       <c r="J42" t="s">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="K42" t="s">
-        <v>254</v>
+        <v>293</v>
       </c>
       <c r="L42" t="s">
-        <v>255</v>
+        <v>294</v>
       </c>
       <c r="M42" t="n">
         <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>250</v>
+        <v>288</v>
       </c>
       <c r="O42" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="n">
@@ -4554,35 +4901,39 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>256</v>
+        <v>295</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>3945</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>296</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>257</v>
+        <v>297</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="J43" t="s">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="K43" t="s"/>
       <c r="L43" t="s"/>
@@ -4590,10 +4941,10 @@
         <v>2</v>
       </c>
       <c r="N43" t="s">
-        <v>250</v>
+        <v>288</v>
       </c>
       <c r="O43" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P43" t="n">
         <v>1</v>
@@ -4614,51 +4965,52 @@
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
-      <c r="Y43" t="s"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>3945</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>300</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>260</v>
+        <v>301</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>261</v>
+        <v>302</v>
       </c>
       <c r="J44" t="s">
-        <v>262</v>
+        <v>303</v>
       </c>
       <c r="K44" t="s">
-        <v>263</v>
+        <v>304</v>
       </c>
       <c r="L44" t="s">
-        <v>264</v>
+        <v>305</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>265</v>
+        <v>306</v>
       </c>
       <c r="O44" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -4682,50 +5034,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>264</v>
+        <v>305</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>3945</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>307</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>266</v>
+        <v>308</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
       <c r="J45" t="s">
-        <v>268</v>
+        <v>310</v>
       </c>
       <c r="K45" t="s">
-        <v>269</v>
+        <v>311</v>
       </c>
       <c r="L45" t="s">
-        <v>270</v>
+        <v>312</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>265</v>
+        <v>306</v>
       </c>
       <c r="O45" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -4743,50 +5099,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>270</v>
+        <v>312</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>3945</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>313</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>271</v>
+        <v>314</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>272</v>
+        <v>315</v>
       </c>
       <c r="J46" t="s">
-        <v>273</v>
+        <v>316</v>
       </c>
       <c r="K46" t="s">
-        <v>274</v>
+        <v>317</v>
       </c>
       <c r="L46" t="s">
-        <v>275</v>
+        <v>318</v>
       </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>276</v>
+        <v>319</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="n">
@@ -4806,50 +5166,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>277</v>
+        <v>320</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>3945</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>321</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>279</v>
+        <v>323</v>
       </c>
       <c r="J47" t="s">
-        <v>280</v>
+        <v>324</v>
       </c>
       <c r="K47" t="s">
-        <v>281</v>
+        <v>325</v>
       </c>
       <c r="L47" t="s">
-        <v>282</v>
+        <v>326</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -4873,35 +5237,39 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>282</v>
+        <v>326</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>3945</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>328</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>284</v>
+        <v>329</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>285</v>
+        <v>330</v>
       </c>
       <c r="J48" t="s">
-        <v>286</v>
+        <v>331</v>
       </c>
       <c r="K48" t="s"/>
       <c r="L48" t="s"/>
@@ -4909,10 +5277,10 @@
         <v>2</v>
       </c>
       <c r="N48" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="O48" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="P48" t="n">
         <v>2</v>
@@ -4933,51 +5301,52 @@
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s"/>
-      <c r="X48" t="s"/>
-      <c r="Y48" t="s"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>3945</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>332</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>287</v>
+        <v>333</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>288</v>
+        <v>334</v>
       </c>
       <c r="J49" t="s">
-        <v>289</v>
+        <v>335</v>
       </c>
       <c r="K49" t="s">
-        <v>290</v>
+        <v>336</v>
       </c>
       <c r="L49" t="s">
-        <v>291</v>
+        <v>337</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>292</v>
+        <v>338</v>
       </c>
       <c r="O49" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -4995,35 +5364,39 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>293</v>
+        <v>339</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>3945</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>340</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>294</v>
+        <v>341</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="J50" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="K50" t="s"/>
       <c r="L50" t="s"/>
@@ -5031,10 +5404,10 @@
         <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>292</v>
+        <v>338</v>
       </c>
       <c r="O50" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="P50" t="n">
         <v>4</v>
@@ -5053,36 +5426,37 @@
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="s"/>
-      <c r="X50" t="s"/>
-      <c r="Y50" t="s"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>3945</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>344</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>297</v>
+        <v>345</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>298</v>
+        <v>346</v>
       </c>
       <c r="J51" t="s">
-        <v>299</v>
+        <v>347</v>
       </c>
       <c r="K51" t="s"/>
       <c r="L51" t="s"/>
@@ -5090,10 +5464,10 @@
         <v>2</v>
       </c>
       <c r="N51" t="s">
-        <v>292</v>
+        <v>338</v>
       </c>
       <c r="O51" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P51" t="n">
         <v>2</v>
@@ -5114,36 +5488,37 @@
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s"/>
-      <c r="X51" t="s"/>
-      <c r="Y51" t="s"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>3945</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>348</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>300</v>
+        <v>349</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>301</v>
+        <v>350</v>
       </c>
       <c r="J52" t="s">
-        <v>302</v>
+        <v>351</v>
       </c>
       <c r="K52" t="s"/>
       <c r="L52" t="s"/>
@@ -5151,10 +5526,10 @@
         <v>2</v>
       </c>
       <c r="N52" t="s">
-        <v>292</v>
+        <v>338</v>
       </c>
       <c r="O52" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P52" t="n">
         <v>3</v>
@@ -5175,51 +5550,52 @@
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s"/>
-      <c r="X52" t="s"/>
-      <c r="Y52" t="s"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>3945</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>352</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>303</v>
+        <v>353</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>304</v>
+        <v>354</v>
       </c>
       <c r="J53" t="s">
-        <v>305</v>
+        <v>355</v>
       </c>
       <c r="K53" t="s">
-        <v>306</v>
+        <v>356</v>
       </c>
       <c r="L53" t="s">
-        <v>307</v>
+        <v>357</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>308</v>
+        <v>358</v>
       </c>
       <c r="O53" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -5237,54 +5613,58 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>309</v>
+        <v>359</v>
       </c>
       <c r="X53" t="s">
-        <v>310</v>
+        <v>360</v>
       </c>
       <c r="Y53" t="s">
-        <v>311</v>
+        <v>361</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>3945</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>362</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>312</v>
+        <v>363</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>313</v>
+        <v>364</v>
       </c>
       <c r="J54" t="s">
-        <v>314</v>
+        <v>365</v>
       </c>
       <c r="K54" t="s"/>
       <c r="L54" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M54" t="n">
         <v>3</v>
       </c>
       <c r="N54" t="s">
-        <v>308</v>
+        <v>358</v>
       </c>
       <c r="O54" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -5306,54 +5686,58 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>309</v>
+        <v>359</v>
       </c>
       <c r="X54" t="s">
-        <v>310</v>
+        <v>360</v>
       </c>
       <c r="Y54" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>3945</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>258</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>315</v>
+        <v>366</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>316</v>
+        <v>367</v>
       </c>
       <c r="J55" t="s">
-        <v>317</v>
+        <v>368</v>
       </c>
       <c r="K55" t="s"/>
       <c r="L55" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>318</v>
+        <v>369</v>
       </c>
       <c r="O55" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P55" t="n">
         <v>4</v>
@@ -5375,56 +5759,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>309</v>
+        <v>359</v>
       </c>
       <c r="X55" t="s">
-        <v>310</v>
+        <v>360</v>
       </c>
       <c r="Y55" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>3945</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>370</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>319</v>
+        <v>371</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>320</v>
+        <v>372</v>
       </c>
       <c r="J56" t="s">
-        <v>321</v>
+        <v>373</v>
       </c>
       <c r="K56" t="s">
-        <v>322</v>
+        <v>374</v>
       </c>
       <c r="L56" t="s">
-        <v>323</v>
+        <v>375</v>
       </c>
       <c r="M56" t="n">
         <v>2</v>
       </c>
       <c r="N56" t="s">
-        <v>324</v>
+        <v>376</v>
       </c>
       <c r="O56" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
@@ -5440,47 +5828,51 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>309</v>
+        <v>359</v>
       </c>
       <c r="X56" t="s">
-        <v>310</v>
+        <v>360</v>
       </c>
       <c r="Y56" t="s">
-        <v>325</v>
+        <v>377</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>3945</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>378</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>326</v>
+        <v>379</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>327</v>
+        <v>380</v>
       </c>
       <c r="J57" t="s">
-        <v>328</v>
+        <v>381</v>
       </c>
       <c r="K57" t="s">
-        <v>329</v>
+        <v>382</v>
       </c>
       <c r="L57" t="s">
-        <v>330</v>
+        <v>383</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
@@ -5509,35 +5901,39 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>330</v>
+        <v>383</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>3945</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>384</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>331</v>
+        <v>385</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>332</v>
+        <v>386</v>
       </c>
       <c r="J58" t="s">
-        <v>333</v>
+        <v>387</v>
       </c>
       <c r="K58" t="s"/>
       <c r="L58" t="s"/>
@@ -5545,10 +5941,10 @@
         <v>2</v>
       </c>
       <c r="N58" t="s">
-        <v>334</v>
+        <v>388</v>
       </c>
       <c r="O58" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P58" t="n">
         <v>1</v>
@@ -5569,51 +5965,52 @@
       <c r="V58" t="n">
         <v>0</v>
       </c>
-      <c r="W58" t="s"/>
-      <c r="X58" t="s"/>
-      <c r="Y58" t="s"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>3945</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>389</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>335</v>
+        <v>390</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>336</v>
+        <v>391</v>
       </c>
       <c r="J59" t="s">
-        <v>337</v>
+        <v>392</v>
       </c>
       <c r="K59" t="s">
-        <v>338</v>
+        <v>393</v>
       </c>
       <c r="L59" t="s">
-        <v>339</v>
+        <v>394</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>340</v>
+        <v>395</v>
       </c>
       <c r="O59" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="n">
@@ -5633,50 +6030,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>339</v>
+        <v>394</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>3945</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>307</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>341</v>
+        <v>396</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>342</v>
+        <v>397</v>
       </c>
       <c r="J60" t="s">
-        <v>343</v>
+        <v>398</v>
       </c>
       <c r="K60" t="s">
-        <v>344</v>
+        <v>399</v>
       </c>
       <c r="L60" t="s">
-        <v>345</v>
+        <v>400</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>346</v>
+        <v>401</v>
       </c>
       <c r="O60" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="n">
@@ -5696,50 +6097,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>345</v>
+        <v>400</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>3945</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>402</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>347</v>
+        <v>403</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="J61" t="s">
-        <v>349</v>
+        <v>405</v>
       </c>
       <c r="K61" t="s">
-        <v>350</v>
+        <v>406</v>
       </c>
       <c r="L61" t="s">
-        <v>351</v>
+        <v>407</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>340</v>
+        <v>395</v>
       </c>
       <c r="O61" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -5763,50 +6168,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>351</v>
+        <v>407</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>3945</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>408</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>352</v>
+        <v>409</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>353</v>
+        <v>410</v>
       </c>
       <c r="J62" t="s">
-        <v>354</v>
+        <v>411</v>
       </c>
       <c r="K62" t="s">
-        <v>355</v>
+        <v>412</v>
       </c>
       <c r="L62" t="s">
-        <v>356</v>
+        <v>413</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>357</v>
+        <v>414</v>
       </c>
       <c r="O62" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P62" t="s"/>
       <c r="Q62" t="s"/>
@@ -5820,48 +6229,52 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>356</v>
+        <v>413</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>3945</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>415</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>358</v>
+        <v>416</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>359</v>
+        <v>417</v>
       </c>
       <c r="J63" t="s">
-        <v>360</v>
+        <v>418</v>
       </c>
       <c r="K63" t="s"/>
       <c r="L63" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>346</v>
+        <v>401</v>
       </c>
       <c r="O63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -5883,54 +6296,58 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>361</v>
+        <v>419</v>
       </c>
       <c r="X63" t="s">
-        <v>362</v>
+        <v>420</v>
       </c>
       <c r="Y63" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>3945</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>421</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>363</v>
+        <v>422</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>364</v>
+        <v>423</v>
       </c>
       <c r="J64" t="s">
-        <v>365</v>
+        <v>424</v>
       </c>
       <c r="K64" t="s"/>
       <c r="L64" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M64" t="n">
         <v>3</v>
       </c>
       <c r="N64" t="s">
-        <v>346</v>
+        <v>401</v>
       </c>
       <c r="O64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P64" t="n">
         <v>4</v>
@@ -5952,54 +6369,58 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>361</v>
+        <v>419</v>
       </c>
       <c r="X64" t="s">
-        <v>362</v>
+        <v>420</v>
       </c>
       <c r="Y64" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>3945</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>425</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>366</v>
+        <v>426</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>367</v>
+        <v>427</v>
       </c>
       <c r="J65" t="s">
-        <v>368</v>
+        <v>428</v>
       </c>
       <c r="K65" t="s"/>
       <c r="L65" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>369</v>
+        <v>429</v>
       </c>
       <c r="O65" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P65" t="n">
         <v>4</v>
@@ -6021,54 +6442,58 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>370</v>
+        <v>430</v>
       </c>
       <c r="X65" t="s">
-        <v>371</v>
+        <v>431</v>
       </c>
       <c r="Y65" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>3945</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>432</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>372</v>
+        <v>433</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>373</v>
+        <v>434</v>
       </c>
       <c r="J66" t="s">
-        <v>374</v>
+        <v>435</v>
       </c>
       <c r="K66" t="s"/>
       <c r="L66" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
       <c r="N66" t="s">
-        <v>369</v>
+        <v>429</v>
       </c>
       <c r="O66" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P66" t="n">
         <v>2</v>
@@ -6090,41 +6515,45 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>361</v>
+        <v>419</v>
       </c>
       <c r="X66" t="s">
-        <v>362</v>
+        <v>420</v>
       </c>
       <c r="Y66" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>3945</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>436</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>375</v>
+        <v>437</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>376</v>
+        <v>438</v>
       </c>
       <c r="J67" t="s">
-        <v>377</v>
+        <v>439</v>
       </c>
       <c r="K67" t="s"/>
       <c r="L67" t="s"/>
@@ -6132,10 +6561,10 @@
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>378</v>
+        <v>440</v>
       </c>
       <c r="O67" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P67" t="n">
         <v>4</v>
@@ -6156,49 +6585,50 @@
       <c r="V67" t="n">
         <v>0</v>
       </c>
-      <c r="W67" t="s"/>
-      <c r="X67" t="s"/>
-      <c r="Y67" t="s"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>3945</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>441</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>379</v>
+        <v>442</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>380</v>
+        <v>443</v>
       </c>
       <c r="J68" t="s">
-        <v>381</v>
+        <v>444</v>
       </c>
       <c r="K68" t="s"/>
       <c r="L68" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
       <c r="N68" t="s">
-        <v>382</v>
+        <v>445</v>
       </c>
       <c r="O68" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P68" t="n">
         <v>2</v>
@@ -6222,41 +6652,45 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>3945</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>446</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>383</v>
+        <v>447</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>384</v>
+        <v>448</v>
       </c>
       <c r="J69" t="s">
-        <v>385</v>
+        <v>449</v>
       </c>
       <c r="K69" t="s">
-        <v>386</v>
+        <v>450</v>
       </c>
       <c r="L69" t="s">
-        <v>387</v>
+        <v>451</v>
       </c>
       <c r="M69" t="n">
         <v>3</v>
@@ -6283,54 +6717,58 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>370</v>
+        <v>430</v>
       </c>
       <c r="X69" t="s">
-        <v>371</v>
+        <v>431</v>
       </c>
       <c r="Y69" t="s">
-        <v>388</v>
+        <v>452</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>3945</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>453</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>389</v>
+        <v>454</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>390</v>
+        <v>455</v>
       </c>
       <c r="J70" t="s">
-        <v>391</v>
+        <v>456</v>
       </c>
       <c r="K70" t="s"/>
       <c r="L70" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>392</v>
+        <v>457</v>
       </c>
       <c r="O70" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -6352,56 +6790,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>393</v>
+        <v>458</v>
       </c>
       <c r="X70" t="s">
-        <v>394</v>
+        <v>459</v>
       </c>
       <c r="Y70" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>3945</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>460</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>395</v>
+        <v>461</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>396</v>
+        <v>462</v>
       </c>
       <c r="J71" t="s">
-        <v>397</v>
+        <v>463</v>
       </c>
       <c r="K71" t="s">
-        <v>398</v>
+        <v>464</v>
       </c>
       <c r="L71" t="s">
-        <v>399</v>
+        <v>465</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>392</v>
+        <v>457</v>
       </c>
       <c r="O71" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -6423,56 +6865,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>393</v>
+        <v>458</v>
       </c>
       <c r="X71" t="s">
-        <v>394</v>
+        <v>459</v>
       </c>
       <c r="Y71" t="s">
-        <v>400</v>
+        <v>466</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>3945</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>467</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>401</v>
+        <v>468</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>402</v>
+        <v>469</v>
       </c>
       <c r="J72" t="s">
-        <v>403</v>
+        <v>470</v>
       </c>
       <c r="K72" t="s">
-        <v>404</v>
+        <v>471</v>
       </c>
       <c r="L72" t="s">
-        <v>405</v>
+        <v>472</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>392</v>
+        <v>457</v>
       </c>
       <c r="O72" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -6494,56 +6940,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>393</v>
+        <v>458</v>
       </c>
       <c r="X72" t="s">
-        <v>394</v>
+        <v>459</v>
       </c>
       <c r="Y72" t="s">
-        <v>406</v>
+        <v>473</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>3945</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>474</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>407</v>
+        <v>475</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>408</v>
+        <v>476</v>
       </c>
       <c r="J73" t="s">
-        <v>409</v>
+        <v>477</v>
       </c>
       <c r="K73" t="s">
-        <v>410</v>
+        <v>478</v>
       </c>
       <c r="L73" t="s">
-        <v>411</v>
+        <v>479</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>412</v>
+        <v>480</v>
       </c>
       <c r="O73" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -6565,56 +7015,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>413</v>
+        <v>481</v>
       </c>
       <c r="X73" t="s">
-        <v>414</v>
+        <v>482</v>
       </c>
       <c r="Y73" t="s">
-        <v>415</v>
+        <v>483</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>3945</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>484</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>416</v>
+        <v>485</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>417</v>
+        <v>486</v>
       </c>
       <c r="J74" t="s">
-        <v>418</v>
+        <v>487</v>
       </c>
       <c r="K74" t="s">
-        <v>419</v>
+        <v>488</v>
       </c>
       <c r="L74" t="s">
-        <v>420</v>
+        <v>489</v>
       </c>
       <c r="M74" t="n">
         <v>4</v>
       </c>
       <c r="N74" t="s">
-        <v>421</v>
+        <v>490</v>
       </c>
       <c r="O74" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P74" t="n">
         <v>5</v>
@@ -6636,41 +7090,45 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>422</v>
+        <v>491</v>
       </c>
       <c r="X74" t="s">
-        <v>423</v>
+        <v>492</v>
       </c>
       <c r="Y74" t="s">
-        <v>424</v>
+        <v>493</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>3945</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>494</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>425</v>
+        <v>495</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>426</v>
+        <v>496</v>
       </c>
       <c r="J75" t="s">
-        <v>427</v>
+        <v>497</v>
       </c>
       <c r="K75" t="s"/>
       <c r="L75" t="s"/>
@@ -6678,10 +7136,10 @@
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>428</v>
+        <v>498</v>
       </c>
       <c r="O75" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -6702,51 +7160,52 @@
       <c r="V75" t="n">
         <v>0</v>
       </c>
-      <c r="W75" t="s"/>
-      <c r="X75" t="s"/>
-      <c r="Y75" t="s"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>3945</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>499</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>429</v>
+        <v>500</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>430</v>
+        <v>501</v>
       </c>
       <c r="J76" t="s">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="K76" t="s">
-        <v>432</v>
+        <v>503</v>
       </c>
       <c r="L76" t="s">
-        <v>433</v>
+        <v>504</v>
       </c>
       <c r="M76" t="n">
         <v>2</v>
       </c>
       <c r="N76" t="s">
-        <v>434</v>
+        <v>505</v>
       </c>
       <c r="O76" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="P76" t="n">
         <v>3</v>
@@ -6770,50 +7229,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>433</v>
+        <v>504</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>3945</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>506</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>435</v>
+        <v>507</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>436</v>
+        <v>508</v>
       </c>
       <c r="J77" t="s">
-        <v>437</v>
+        <v>509</v>
       </c>
       <c r="K77" t="s">
-        <v>438</v>
+        <v>510</v>
       </c>
       <c r="L77" t="s">
-        <v>439</v>
+        <v>511</v>
       </c>
       <c r="M77" t="n">
         <v>3</v>
       </c>
       <c r="N77" t="s">
-        <v>440</v>
+        <v>512</v>
       </c>
       <c r="O77" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P77" t="n">
         <v>3</v>
@@ -6837,50 +7300,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>441</v>
+        <v>513</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>3945</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>514</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>442</v>
+        <v>515</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>443</v>
+        <v>516</v>
       </c>
       <c r="J78" t="s">
-        <v>444</v>
+        <v>517</v>
       </c>
       <c r="K78" t="s">
-        <v>445</v>
+        <v>518</v>
       </c>
       <c r="L78" t="s">
-        <v>446</v>
+        <v>519</v>
       </c>
       <c r="M78" t="n">
         <v>3</v>
       </c>
       <c r="N78" t="s">
-        <v>447</v>
+        <v>520</v>
       </c>
       <c r="O78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P78" t="n">
         <v>3</v>
@@ -6902,50 +7369,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>446</v>
+        <v>519</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>3945</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>521</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>448</v>
+        <v>522</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>449</v>
+        <v>523</v>
       </c>
       <c r="J79" t="s">
-        <v>450</v>
+        <v>524</v>
       </c>
       <c r="K79" t="s">
-        <v>451</v>
+        <v>525</v>
       </c>
       <c r="L79" t="s">
-        <v>452</v>
+        <v>526</v>
       </c>
       <c r="M79" t="n">
         <v>4</v>
       </c>
       <c r="N79" t="s">
-        <v>453</v>
+        <v>527</v>
       </c>
       <c r="O79" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -6969,7 +7440,7 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>452</v>
+        <v>526</v>
       </c>
     </row>
   </sheetData>
